--- a/Diet_Problem/Diet_Problem_Data.xlsx
+++ b/Diet_Problem/Diet_Problem_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2020\ARM_Fall_2020\Cases\Diet Problem\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA7078-7629-40C6-9B15-BFE890AA3D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9FD00-3020-455D-B1D0-A8A627CFD072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="340" windowWidth="33030" windowHeight="20650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="340" windowWidth="33030" windowHeight="20650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_Data" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,60 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Calories_kCal</t>
+  </si>
+  <si>
+    <t>Fiber_g</t>
+  </si>
+  <si>
+    <t>Protein_g</t>
+  </si>
+  <si>
+    <t>Calcium_mg</t>
+  </si>
+  <si>
+    <t>Copper_mg</t>
+  </si>
+  <si>
+    <t>Iron_mg</t>
+  </si>
+  <si>
+    <t>Phosphorus_mg</t>
+  </si>
+  <si>
+    <t>Zinc_mg</t>
+  </si>
+  <si>
+    <t>Potassium_mg</t>
+  </si>
+  <si>
+    <t>Sodium_mg</t>
+  </si>
+  <si>
+    <t>Vitamin_D_microg</t>
+  </si>
+  <si>
+    <t>Vitamin_E_mg</t>
+  </si>
+  <si>
+    <t>Niacin_mg</t>
+  </si>
+  <si>
+    <t>Vitamin_B6_mg</t>
+  </si>
+  <si>
+    <t>Folate_microg</t>
+  </si>
+  <si>
+    <t>Choline_mg</t>
+  </si>
+  <si>
+    <t>Sugar_g</t>
+  </si>
+  <si>
+    <t>Lipid_g</t>
+  </si>
+  <si>
     <t>Marco_Diet</t>
   </si>
   <si>
@@ -276,6 +330,18 @@
     <t>FISH, TUNA</t>
   </si>
   <si>
+    <t>Vitamin_C_mg</t>
+  </si>
+  <si>
+    <t>Price_($)</t>
+  </si>
+  <si>
+    <t>Vitamin_A_mg</t>
+  </si>
+  <si>
+    <t>Carbohydrate_g</t>
+  </si>
+  <si>
     <t>Children_4-8_y</t>
   </si>
   <si>
@@ -298,72 +364,6 @@
   </si>
   <si>
     <t>Pregnancy_19-30_y</t>
-  </si>
-  <si>
-    <t>Calories</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Carbohydrate</t>
-  </si>
-  <si>
-    <t>Fiber</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Vitamin_A</t>
-  </si>
-  <si>
-    <t>Vitamin_C</t>
-  </si>
-  <si>
-    <t>Vitamin_D</t>
-  </si>
-  <si>
-    <t>Vitamin_E</t>
-  </si>
-  <si>
-    <t>Niacin</t>
-  </si>
-  <si>
-    <t>Vitamin_B6</t>
-  </si>
-  <si>
-    <t>Folate</t>
-  </si>
-  <si>
-    <t>Choline</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Lipid</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,26 +898,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1278,13 +1276,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="72.9140625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1297,73 +1294,73 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>104</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -1371,78 +1368,78 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.74416549963519196</v>
+      </c>
+      <c r="E2" s="9">
+        <v>717</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="I2" s="5">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="L2" s="5">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="5">
+        <v>24</v>
+      </c>
+      <c r="O2" s="5">
+        <v>643</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2499</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T2" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.74416549963519196</v>
-      </c>
-      <c r="E2" s="6">
-        <v>717</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="W2" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="X2" s="5">
         <v>0.06</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="I2" s="7">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="L2" s="7">
-        <v>24</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="7">
-        <v>24</v>
-      </c>
-      <c r="O2" s="7">
-        <v>643</v>
-      </c>
-      <c r="P2" s="7">
-        <v>2499</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="S2" s="7">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="T2" s="7">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U2" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V2" s="7">
-        <v>3</v>
-      </c>
-      <c r="W2" s="7">
-        <v>18.8</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="5">
         <v>81.11</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1451,78 +1448,78 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8">
         <v>1.8948568811266082</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>300</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>0.46</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>19.8</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>388</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>0.33</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>347</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>2.38</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>187</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>842</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <v>820</v>
       </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
         <v>0.4</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="5">
         <v>0.21</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="5">
         <v>0.63</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="5">
         <v>62</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="5">
         <v>15.4</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="5">
         <v>0.46</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="5">
         <v>24.26</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1531,78 +1528,78 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.90115966127112623</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>403</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>1.28</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>24.9</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>721</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>0.68</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>512</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>3.11</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>98</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>621</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>1002</v>
       </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
         <v>0.6</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <v>0.08</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="5">
         <v>18</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="5">
         <v>16.5</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="5">
         <v>0.52</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="5">
         <v>33.14</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1611,78 +1608,78 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.0075173659183307</v>
+      </c>
+      <c r="E5" s="9">
+        <v>300</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>22.17</v>
+      </c>
+      <c r="I5" s="5">
+        <v>505</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="L5" s="5">
+        <v>354</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.92</v>
+      </c>
+      <c r="N5" s="5">
+        <v>76</v>
+      </c>
+      <c r="O5" s="5">
+        <v>627</v>
+      </c>
+      <c r="P5" s="5">
+        <v>676</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="V5" s="5">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.0075173659183307</v>
-      </c>
-      <c r="E5" s="6">
-        <v>300</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.19</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>22.17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>505</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="L5" s="7">
-        <v>354</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2.92</v>
-      </c>
-      <c r="N5" s="7">
-        <v>76</v>
-      </c>
-      <c r="O5" s="7">
-        <v>627</v>
-      </c>
-      <c r="P5" s="7">
-        <v>676</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0.104</v>
-      </c>
-      <c r="U5" s="7">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="V5" s="7">
-        <v>7</v>
-      </c>
-      <c r="W5" s="7">
+      <c r="W5" s="5">
         <v>15.4</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="5">
         <v>1.03</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="5">
         <v>22.35</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1691,78 +1688,78 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.46676852038600525</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>174</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>3.04</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <v>11.26</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>207</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>0.38</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>158</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>105</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>84</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>445</v>
       </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
         <v>0.2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="5">
         <v>0.11</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="5">
         <v>0.104</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="5">
         <v>12</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="5">
         <v>17.5</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="5">
         <v>0.27</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="5">
         <v>12.98</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1771,78 +1768,78 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.24418509098715932</v>
+      </c>
+      <c r="E7" s="9">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.92</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>123</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="L7" s="5">
+        <v>43</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="N7" s="5">
+        <v>122</v>
+      </c>
+      <c r="O7" s="5">
+        <v>47</v>
+      </c>
+      <c r="P7" s="5">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U7" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="V7" s="5">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.24418509098715932</v>
-      </c>
-      <c r="E7" s="6">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4.92</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>123</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="L7" s="7">
-        <v>43</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="N7" s="7">
-        <v>122</v>
-      </c>
-      <c r="O7" s="7">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="U7" s="7">
-        <v>3.1E-2</v>
-      </c>
-      <c r="V7" s="7">
-        <v>9</v>
-      </c>
-      <c r="W7" s="7">
+      <c r="W7" s="5">
         <v>23.6</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="5">
         <v>3.65</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="5">
         <v>1.47</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1851,78 +1848,78 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8">
         <v>9.424783502534953E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>50</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>4.8</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>3.3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>120</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>0.02</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>92</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>0.48</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>140</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>47</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>190</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>0.2</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>1.2</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <v>0.03</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="5">
         <v>5</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="5">
         <v>5.0599999999999996</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="5">
         <v>1.98</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1931,78 +1928,78 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
         <v>9.6218577916378195E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>42</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>3.37</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>125</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>0.01</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>0.03</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>95</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>0.42</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <v>150</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <v>44</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <v>196</v>
       </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
         <v>1.2</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="5">
         <v>0.01</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="5">
         <v>5</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="5">
         <v>17.7</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="5">
         <v>5.2</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="5">
         <v>0.97</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2011,78 +2008,78 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
         <v>0.1856593015901763</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>34</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>4.96</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>3.37</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>122</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>0.03</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>101</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <v>0.42</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>156</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>42</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>204</v>
       </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
         <v>1.2</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="5">
         <v>0.01</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="5">
         <v>5</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="5">
         <v>15.6</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="5">
         <v>5.09</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="5">
         <v>0.08</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2091,78 +2088,78 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.24724152230443927</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>119</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>21.15</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>0.3</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>3.05</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>132</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>0.31</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>126</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>0.48</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>224</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <v>111</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>67</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
         <v>1</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <v>0.05</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="5">
         <v>0.124</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="5">
         <v>5</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="5">
         <v>17</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="5">
         <v>20.85</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="5">
         <v>2.7</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2171,78 +2168,78 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.24803306748510109</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>112</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>17.75</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>3.86</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>146</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>0.1</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>115</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <v>0.39</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="5">
         <v>183</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="5">
         <v>95</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="5">
         <v>91</v>
       </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
         <v>1.2</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="5">
         <v>0.05</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="5">
         <v>7</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="5">
         <v>14.3</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="5">
         <v>17.75</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="5">
         <v>3.03</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2251,78 +2248,78 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8">
         <v>0.40427116368761368</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>99</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>18.64</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>3.98</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>138</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>0.06</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>109</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <v>0.67</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="5">
         <v>177</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="5">
         <v>53</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <v>40</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="5">
         <v>0.6</v>
       </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
         <v>0.02</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="5">
         <v>9</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="5">
         <v>15.2</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="5">
         <v>18.64</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="6">
         <v>1.5</v>
       </c>
     </row>
@@ -2331,78 +2328,78 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8">
         <v>0.29735057547237648</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>52</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.73</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>10.9</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>7</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>0.08</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>15</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <v>0.03</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <v>163</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="5">
         <v>166</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
         <v>0.105</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="5">
         <v>4</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="5">
         <v>0.71</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="5">
         <v>0.17</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2411,78 +2408,78 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.44221234002050025</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>149</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>1.61</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>9.99</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>66</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>1.31</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>165</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <v>1.04</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="5">
         <v>132</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <v>145</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <v>578</v>
       </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
         <v>1.8</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="5">
         <v>36</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="5">
         <v>221</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="5">
         <v>1.39</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="5">
         <v>10.98</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2491,78 +2488,78 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8">
         <v>0.51117602412141361</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>131</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.83</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>13.61</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>62</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>1.89</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>215</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>1.39</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <v>152</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <v>207</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <v>787</v>
       </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="5">
         <v>1.31</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="5">
         <v>0.184</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="5">
         <v>51</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="5">
         <v>317.10000000000002</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="5">
         <v>0.4</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="5">
         <v>14.84</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2571,78 +2568,78 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8">
         <v>0.7770792499099578</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>717</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.06</v>
       </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>0.85</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>24</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>0.02</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>24</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>0.09</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <v>24</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="5">
         <v>11</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="5">
         <v>2499</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
         <v>1.5</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="5">
         <v>2.3199999999999998</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="5">
         <v>3</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="5">
         <v>18.8</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="5">
         <v>0.06</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="5">
         <v>81.11</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2651,78 +2648,78 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8">
         <v>0.25555208653870198</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <v>315</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>55.35</v>
       </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
         <v>6.84</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>251</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>0.17</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>193</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>0.79</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <v>350</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="5">
         <v>129</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <v>267</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="5">
         <v>2.6</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>0.2</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="5">
         <v>0.2</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="5">
         <v>0.21</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="5">
         <v>11</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="5">
         <v>89.1</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="5">
         <v>49.74</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="5">
         <v>7.35</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -2731,78 +2728,78 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>1.000181170150418</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="9">
         <v>240</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>39.6</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>1.2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>3.7</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <v>73</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>0.106</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>54</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <v>0.32</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <v>68</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="5">
         <v>162</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <v>122</v>
       </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
         <v>0.4</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="5">
         <v>0.23699999999999999</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="5">
         <v>5</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="5">
         <v>8</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="5">
         <v>21.3</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="5">
         <v>7.4</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2811,78 +2808,78 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8">
         <v>0.52521776039330392</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <v>354</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>34.380000000000003</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>1</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>5.21</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <v>63</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>0.128</v>
       </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>108</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <v>0.86</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="5">
         <v>222</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="5">
         <v>94</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="5">
         <v>104</v>
       </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
         <v>0.1</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="5">
         <v>0.18</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="5">
         <v>0.82899999999999996</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="5">
         <v>24</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="5">
         <v>23.8</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="5">
         <v>25</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="5">
         <v>21.88</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2891,78 +2888,78 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8">
         <v>0.45965354693265031</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <v>61</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>4.66</v>
       </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>3.47</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <v>121</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>0.05</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>95</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <v>0.59</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="5">
         <v>155</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="5">
         <v>46</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>99</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="5">
         <v>0.5</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="5">
         <v>0.1</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="5">
         <v>0.06</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="5">
         <v>7</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="5">
         <v>15.2</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="5">
         <v>4.66</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="5">
         <v>3.25</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2971,78 +2968,78 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="5">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8">
         <v>0.35430439075476267</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <v>379</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>14.64</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>0.8</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <v>17</v>
       </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
         <v>1.18</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>27</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <v>0.26</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <v>107</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="5">
         <v>962</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="5">
         <v>213</v>
       </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
         <v>4</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="5">
         <v>0.41799999999999998</v>
       </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="5">
         <v>15.18</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="5">
         <v>35.06</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3051,78 +3048,78 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5">
+        <v>44</v>
+      </c>
+      <c r="D23" s="8">
         <v>0.35430439075476267</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>222</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>31.22</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>1.5</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>11</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>0.16</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>0.73</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>16</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <v>0.2</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="5">
         <v>107</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="5">
         <v>838</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="5">
         <v>541</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="5">
         <v>4.8</v>
       </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
         <v>1</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="5">
         <v>0.46700000000000003</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="5">
         <v>2</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="5">
         <v>4</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="5">
         <v>16.86</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="5">
         <v>11.52</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3131,78 +3128,78 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5">
+        <v>44</v>
+      </c>
+      <c r="D24" s="8">
         <v>3.3017421941597198</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <v>884</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
         <v>1</v>
       </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>1</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="5">
         <v>2</v>
       </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7">
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
         <v>14.35</v>
       </c>
-      <c r="T24" s="7">
-        <v>0</v>
-      </c>
-      <c r="U24" s="7">
-        <v>0</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-      <c r="W24" s="7">
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
         <v>0.3</v>
       </c>
-      <c r="X24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="7">
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
         <v>100</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="Z24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3211,78 +3208,78 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8">
         <v>0.35225061871564883</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <v>884</v>
       </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
         <v>41.08</v>
       </c>
-      <c r="T25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
         <v>0.2</v>
       </c>
-      <c r="X25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="7">
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
         <v>100</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="Z25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3291,78 +3288,78 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8">
         <v>0.2302035523424423</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <v>717</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>0.7</v>
       </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <v>0.16</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>3</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
         <v>0.06</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>5</v>
       </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
         <v>18</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="5">
         <v>751</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <v>3571</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="5">
         <v>0.2</v>
       </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
         <v>9</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="5">
         <v>1</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="5">
         <v>12.4</v>
       </c>
-      <c r="X26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="7">
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
         <v>80.709999999999994</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="Z26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3371,78 +3368,78 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5">
+        <v>50</v>
+      </c>
+      <c r="D27" s="8">
         <v>0.68390467452230164</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>143</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>21.64</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>11</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>0.86</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>183</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <v>1.78</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="5">
         <v>224</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="5">
         <v>112</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="5">
         <v>56</v>
       </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
         <v>0.3</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="5">
         <v>0.09</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="5">
         <v>7.6310000000000002</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="5">
         <v>0.59899999999999998</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="5">
         <v>7</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="5">
         <v>58</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="5">
         <v>0.06</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="5">
         <v>5.64</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="Z27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3451,78 +3448,78 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8">
         <v>0.40427116368760579</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="9">
         <v>63</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>7.04</v>
       </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <v>5.25</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>183</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="5">
         <v>0.08</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="5">
         <v>144</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="5">
         <v>0.89</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="5">
         <v>234</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="5">
         <v>70</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="5">
         <v>51</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="5">
         <v>0.8</v>
       </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7">
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
         <v>0.03</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="5">
         <v>0.114</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="5">
         <v>11</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="5">
         <v>15.2</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="5">
         <v>7.04</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="5">
         <v>1.55</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="Z28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3531,78 +3528,78 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="5">
+        <v>50</v>
+      </c>
+      <c r="D29" s="8">
         <v>1.1467767706741789</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>211</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>3.34</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>0.6</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>19.670000000000002</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>28</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="5">
         <v>2.41</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>205</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="5">
         <v>190</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="5">
         <v>615</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="5">
         <v>58</v>
       </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
         <v>0.2</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="5">
         <v>0.36</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="5">
         <v>5.5</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="5">
         <v>10</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="5">
         <v>89.3</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="5">
         <v>2.04</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="5">
         <v>12.67</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3611,78 +3608,78 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="5">
+        <v>50</v>
+      </c>
+      <c r="D30" s="8">
         <v>0.60298125193490948</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <v>223</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>3.81</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>12.23</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="5">
         <v>148</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="5">
         <v>1.47</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>172</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="5">
         <v>1.84</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="5">
         <v>392</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="5">
         <v>911</v>
       </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
         <v>0.6</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="5">
         <v>0.62</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="5">
         <v>3.68</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="5">
         <v>9</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="5">
         <v>48.4</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="5">
         <v>1.21</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="5">
         <v>17.29</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3691,78 +3688,78 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="5">
+        <v>50</v>
+      </c>
+      <c r="D31" s="8">
         <v>0.60298125193490948</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <v>305</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>1.72</v>
       </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>11.53</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>11</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <v>0.08</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="5">
         <v>86</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="5">
         <v>1.84</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="5">
         <v>167</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="5">
         <v>819</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="5">
         <v>58</v>
       </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
         <v>0.9</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="5">
         <v>0.25</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="5">
         <v>2.6339999999999999</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="5">
         <v>0.13</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="5">
         <v>4</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="5">
         <v>43.2</v>
       </c>
-      <c r="X31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="7">
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
         <v>27.64</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="Z31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3771,78 +3768,78 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="5">
+        <v>50</v>
+      </c>
+      <c r="D32" s="8">
         <v>1.0090896927132553</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="9">
         <v>79</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>2.17</v>
       </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>16.79</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>6</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>0.32</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>60</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="5">
         <v>0.3</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="5">
         <v>67</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="5">
         <v>1087</v>
       </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
         <v>0.1</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="5">
         <v>0.1</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="5">
         <v>3.4279999999999999</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="5">
         <v>0.15</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="5">
         <v>1</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="5">
         <v>64.5</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="5">
         <v>0.1</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="5">
         <v>0.39</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="6">
         <v>2.5</v>
       </c>
     </row>
@@ -3851,78 +3848,78 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="5">
+        <v>57</v>
+      </c>
+      <c r="D33" s="8">
         <v>0.84593077713684728</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="9">
         <v>260</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>74.239999999999995</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <v>29.3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>13.14</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <v>389</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="5">
         <v>1.04</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="5">
         <v>1150</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="5">
         <v>12.4</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="5">
         <v>1020</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="5">
         <v>258</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="5">
         <v>1747</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="5">
         <v>20</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="5">
         <v>4.3</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="5">
         <v>1.24</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="5">
         <v>14.8</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="5">
         <v>12</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="5">
         <v>1310</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="5">
         <v>49.4</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="5">
         <v>15.69</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3931,78 +3928,78 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="5">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8">
         <v>0.70713855052510322</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="9">
         <v>357</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>84.1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <v>3.3</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>7.5</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <v>7</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <v>0.19800000000000001</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="5">
         <v>28.9</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="5">
         <v>102</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="5">
         <v>1</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="5">
         <v>168</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="5">
         <v>729</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="5">
         <v>1786</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="5">
         <v>21</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="5">
         <v>3.6</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="5">
         <v>0.12</v>
       </c>
-      <c r="T34" s="7">
+      <c r="T34" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="5">
         <v>1.79</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="5">
         <v>357</v>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="5">
         <v>9.5</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Y34" s="5">
         <v>0.4</v>
       </c>
-      <c r="Z34" s="8">
+      <c r="Z34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4011,78 +4008,78 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="5">
+        <v>60</v>
+      </c>
+      <c r="D35" s="8">
         <v>0.29010325928782682</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="9">
         <v>52</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="5">
         <v>13.81</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="5">
         <v>2.4</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>0.26</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="5">
         <v>6</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="5">
         <v>0.12</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="5">
         <v>11</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="5">
         <v>0.04</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="5">
         <v>107</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="5">
         <v>1</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="5">
         <v>54</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
         <v>0.18</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="5">
         <v>3</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="5">
         <v>3.4</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="5">
         <v>10.39</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="5">
         <v>0.17</v>
       </c>
-      <c r="Z35" s="8">
+      <c r="Z35" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -4091,78 +4088,78 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="5">
+        <v>60</v>
+      </c>
+      <c r="D36" s="8">
         <v>0.49358587563384576</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <v>48</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="5">
         <v>11.12</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="5">
         <v>2</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>1.4</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="5">
         <v>13</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="5">
         <v>0.39</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="5">
         <v>23</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="5">
         <v>0.2</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="5">
         <v>259</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="5">
         <v>1</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="5">
         <v>1926</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="5">
         <v>10</v>
       </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7">
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
         <v>0.89</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="5">
         <v>0.6</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="5">
         <v>9</v>
       </c>
-      <c r="W36" s="7">
+      <c r="W36" s="5">
         <v>2.8</v>
       </c>
-      <c r="X36" s="7">
+      <c r="X36" s="5">
         <v>9.24</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="Y36" s="5">
         <v>0.39</v>
       </c>
-      <c r="Z36" s="8">
+      <c r="Z36" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4171,78 +4168,78 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="5">
+        <v>60</v>
+      </c>
+      <c r="D37" s="8">
         <v>0.210532733000376</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <v>89</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>22.84</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <v>2.6</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="5">
         <v>5</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="5">
         <v>0.26</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="5">
         <v>22</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="5">
         <v>0.15</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="5">
         <v>358</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="5">
         <v>1</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="5">
         <v>64</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-      <c r="S37" s="7">
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
         <v>0.1</v>
       </c>
-      <c r="T37" s="7">
+      <c r="T37" s="5">
         <v>0.66500000000000004</v>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="5">
         <v>0.36699999999999999</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="5">
         <v>20</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="5">
         <v>12.23</v>
       </c>
-      <c r="Y37" s="7">
+      <c r="Y37" s="5">
         <v>0.33</v>
       </c>
-      <c r="Z37" s="8">
+      <c r="Z37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4251,78 +4248,78 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="5">
+        <v>60</v>
+      </c>
+      <c r="D38" s="8">
         <v>1.1026222068286626</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="9">
         <v>74</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>19.18</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="5">
         <v>2.9</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="5">
         <v>0.75</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="5">
         <v>35</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="5">
         <v>0.37</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="5">
         <v>14</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="5">
         <v>0.15</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="5">
         <v>232</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="5">
         <v>1</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="5">
         <v>142</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="5">
         <v>2</v>
       </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-      <c r="S38" s="7">
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
         <v>0.11</v>
       </c>
-      <c r="T38" s="7">
+      <c r="T38" s="5">
         <v>0.4</v>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="5">
         <v>0.113</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="5">
         <v>6</v>
       </c>
-      <c r="W38" s="7">
+      <c r="W38" s="5">
         <v>4.7</v>
       </c>
-      <c r="X38" s="7">
+      <c r="X38" s="5">
         <v>16.260000000000002</v>
       </c>
-      <c r="Y38" s="7">
+      <c r="Y38" s="5">
         <v>0.3</v>
       </c>
-      <c r="Z38" s="8">
+      <c r="Z38" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4331,78 +4328,78 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="5">
+        <v>60</v>
+      </c>
+      <c r="D39" s="8">
         <v>0.48015663658344293</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="9">
         <v>32</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>8.51</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="5">
         <v>1</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="5">
         <v>0.42</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="5">
         <v>5</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="5">
         <v>0.25</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="5">
         <v>11</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="5">
         <v>0.09</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="5">
         <v>94</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="5">
         <v>4</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="5">
         <v>250</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="5">
         <v>2.1</v>
       </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7">
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
         <v>0.4</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="5">
         <v>0.36299999999999999</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="5">
         <v>3</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="5">
         <v>3.7</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="5">
         <v>7.51</v>
       </c>
-      <c r="Y39" s="7">
+      <c r="Y39" s="5">
         <v>0.05</v>
       </c>
-      <c r="Z39" s="8">
+      <c r="Z39" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4411,78 +4408,78 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="5">
+        <v>60</v>
+      </c>
+      <c r="D40" s="8">
         <v>0.30089265768883811</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="9">
         <v>22</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <v>6.9</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="5">
         <v>0.3</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="5">
         <v>0.35</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="5">
         <v>6</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="5">
         <v>0.08</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="5">
         <v>8</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="5">
         <v>0.05</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="5">
         <v>103</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="5">
         <v>1</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="5">
         <v>6</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="5">
         <v>38.700000000000003</v>
       </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
         <v>0.15</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="5">
         <v>20</v>
       </c>
-      <c r="W40" s="7">
+      <c r="W40" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X40" s="7">
+      <c r="X40" s="5">
         <v>2.52</v>
       </c>
-      <c r="Y40" s="7">
+      <c r="Y40" s="5">
         <v>0.24</v>
       </c>
-      <c r="Z40" s="8">
+      <c r="Z40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4491,78 +4488,78 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="5">
+        <v>60</v>
+      </c>
+      <c r="D41" s="8">
         <v>0.39546404957832798</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="9">
         <v>34</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>8.16</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="5">
         <v>0.9</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="5">
         <v>0.84</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="5">
         <v>9</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="5">
         <v>0.21</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="5">
         <v>15</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="5">
         <v>0.18</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="5">
         <v>267</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="5">
         <v>16</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="5">
         <v>3382</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="5">
         <v>36.700000000000003</v>
       </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="S41" s="7">
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
         <v>0.05</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="5">
         <v>0.73399999999999999</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="5">
         <v>21</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="5">
         <v>7.6</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="5">
         <v>7.86</v>
       </c>
-      <c r="Y41" s="7">
+      <c r="Y41" s="5">
         <v>0.19</v>
       </c>
-      <c r="Z41" s="8">
+      <c r="Z41" s="6">
         <v>1.5</v>
       </c>
     </row>
@@ -4571,78 +4568,78 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="5">
+        <v>60</v>
+      </c>
+      <c r="D42" s="8">
         <v>0.14393176720906292</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="9">
         <v>45</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <v>10.4</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="5">
         <v>0.2</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="5">
         <v>0.7</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="5">
         <v>11</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="5">
         <v>0.2</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="5">
         <v>17</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="5">
         <v>0.05</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="5">
         <v>200</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="5">
         <v>1</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="5">
         <v>200</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="5">
         <v>50</v>
       </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7">
+      <c r="R42" s="5">
+        <v>0</v>
+      </c>
+      <c r="S42" s="5">
         <v>0.04</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="5">
         <v>0.4</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="5">
         <v>0.04</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="5">
         <v>30</v>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="5">
         <v>6.2</v>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="5">
         <v>8.4</v>
       </c>
-      <c r="Y42" s="7">
+      <c r="Y42" s="5">
         <v>0.2</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="Z42" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4651,78 +4648,78 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="D43" s="8">
         <v>1.1524053171570743</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="9">
         <v>134</v>
       </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
         <v>21.2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="5">
         <v>13</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="5">
         <v>0.82</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="5">
         <v>216</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="5">
         <v>2.21</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="5">
         <v>363</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="5">
         <v>59</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="5">
         <v>2</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="5">
         <v>0.2</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="5">
         <v>0.5</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="5">
         <v>0.17</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="5">
         <v>5.5730000000000004</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="5">
         <v>0.64400000000000002</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="5">
         <v>2</v>
       </c>
-      <c r="W43" s="7">
+      <c r="W43" s="5">
         <v>49.9</v>
       </c>
-      <c r="X43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="7">
+      <c r="X43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="5">
         <v>4.8600000000000003</v>
       </c>
-      <c r="Z43" s="8">
+      <c r="Z43" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4731,78 +4728,78 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.0190681712730798</v>
+      </c>
+      <c r="E44" s="9">
+        <v>20</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3.88</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I44" s="5">
+        <v>24</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="K44" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="L44" s="5">
         <v>52</v>
       </c>
-      <c r="D44" s="5">
-        <v>1.0190681712730798</v>
-      </c>
-      <c r="E44" s="6">
-        <v>20</v>
-      </c>
-      <c r="F44" s="7">
-        <v>3.88</v>
-      </c>
-      <c r="G44" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="H44" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I44" s="7">
-        <v>24</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0.189</v>
-      </c>
-      <c r="K44" s="7">
-        <v>2.14</v>
-      </c>
-      <c r="L44" s="7">
+      <c r="M44" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="N44" s="5">
+        <v>202</v>
+      </c>
+      <c r="O44" s="5">
+        <v>2</v>
+      </c>
+      <c r="P44" s="5">
+        <v>756</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0</v>
+      </c>
+      <c r="S44" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T44" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="U44" s="5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V44" s="5">
         <v>52</v>
       </c>
-      <c r="M44" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="N44" s="7">
-        <v>202</v>
-      </c>
-      <c r="O44" s="7">
-        <v>2</v>
-      </c>
-      <c r="P44" s="7">
-        <v>756</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-      <c r="S44" s="7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="T44" s="7">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="U44" s="7">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="V44" s="7">
-        <v>52</v>
-      </c>
-      <c r="W44" s="7">
+      <c r="W44" s="5">
         <v>16</v>
       </c>
-      <c r="X44" s="7">
+      <c r="X44" s="5">
         <v>1.88</v>
       </c>
-      <c r="Y44" s="7">
+      <c r="Y44" s="5">
         <v>0.12</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="Z44" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4811,78 +4808,78 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="5">
+        <v>70</v>
+      </c>
+      <c r="D45" s="8">
         <v>0.15413646741073037</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="9">
         <v>25</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <v>5.8</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="5">
         <v>2.5</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="5">
         <v>1.28</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="5">
         <v>40</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="5">
         <v>0.47</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="5">
         <v>26</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="5">
         <v>0.18</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="5">
         <v>170</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="5">
         <v>18</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="5">
         <v>98</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="5">
         <v>36.6</v>
       </c>
-      <c r="R45" s="7">
-        <v>0</v>
-      </c>
-      <c r="S45" s="7">
+      <c r="R45" s="5">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
         <v>0.15</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="5">
         <v>0.23400000000000001</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="5">
         <v>0.124</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="5">
         <v>43</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="5">
         <v>10.7</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="5">
         <v>3.2</v>
       </c>
-      <c r="Y45" s="7">
+      <c r="Y45" s="5">
         <v>0.1</v>
       </c>
-      <c r="Z45" s="8">
+      <c r="Z45" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4891,78 +4888,78 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="5">
+        <v>70</v>
+      </c>
+      <c r="D46" s="8">
         <v>0.32129699041436105</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="9">
         <v>41</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="5">
         <v>9.58</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="5">
         <v>2.8</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="5">
         <v>0.93</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="5">
         <v>33</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="5">
         <v>0.3</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="5">
         <v>35</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="5">
         <v>0.24</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="5">
         <v>320</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="5">
         <v>69</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="5">
         <v>16706</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="5">
         <v>5.9</v>
       </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7">
+      <c r="R46" s="5">
+        <v>0</v>
+      </c>
+      <c r="S46" s="5">
         <v>0.66</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="5">
         <v>0.98299999999999998</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="5">
         <v>19</v>
       </c>
-      <c r="W46" s="7">
+      <c r="W46" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="5">
         <v>4.74</v>
       </c>
-      <c r="Y46" s="7">
+      <c r="Y46" s="5">
         <v>0.24</v>
       </c>
-      <c r="Z46" s="8">
+      <c r="Z46" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -4971,78 +4968,78 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="5">
+        <v>70</v>
+      </c>
+      <c r="D47" s="8">
         <v>0.9521436988113523</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="9">
         <v>25</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>4.97</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>2</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="5">
         <v>1.92</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="5">
         <v>22</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="5">
         <v>0.42</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="5">
         <v>44</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="5">
         <v>0.27</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="5">
         <v>299</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="5">
         <v>30</v>
       </c>
-      <c r="P47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7">
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
         <v>48.2</v>
       </c>
-      <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="7">
+      <c r="R47" s="5">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
         <v>0.08</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="5">
         <v>0.50700000000000001</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="5">
         <v>0.184</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="5">
         <v>57</v>
       </c>
-      <c r="W47" s="7">
+      <c r="W47" s="5">
         <v>44.3</v>
       </c>
-      <c r="X47" s="7">
+      <c r="X47" s="5">
         <v>1.91</v>
       </c>
-      <c r="Y47" s="7">
+      <c r="Y47" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Z47" s="8">
+      <c r="Z47" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5051,78 +5048,78 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="5">
+        <v>70</v>
+      </c>
+      <c r="D48" s="8">
         <v>0.32204212275803734</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="9">
         <v>16</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>2.97</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="5">
         <v>1.6</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="5">
         <v>0.69</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="5">
         <v>40</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="5">
         <v>0.2</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="5">
         <v>24</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="5">
         <v>0.13</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="5">
         <v>260</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="5">
         <v>80</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="5">
         <v>449</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="5">
         <v>3.1</v>
       </c>
-      <c r="R48" s="7">
-        <v>0</v>
-      </c>
-      <c r="S48" s="7">
+      <c r="R48" s="5">
+        <v>0</v>
+      </c>
+      <c r="S48" s="5">
         <v>0.27</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="5">
         <v>0.32</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="5">
         <v>36</v>
       </c>
-      <c r="W48" s="7">
+      <c r="W48" s="5">
         <v>6.1</v>
       </c>
-      <c r="X48" s="7">
+      <c r="X48" s="5">
         <v>1.83</v>
       </c>
-      <c r="Y48" s="7">
+      <c r="Y48" s="5">
         <v>0.17</v>
       </c>
-      <c r="Z48" s="8">
+      <c r="Z48" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5131,78 +5128,78 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="5">
+        <v>70</v>
+      </c>
+      <c r="D49" s="8">
         <v>0.82849085888629248</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="9">
         <v>86</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="5">
         <v>18.7</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="5">
         <v>2</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <v>3.27</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <v>2</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="5">
         <v>0.52</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="5">
         <v>89</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="5">
         <v>0.46</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="5">
         <v>270</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="5">
         <v>15</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="5">
         <v>187</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="5">
         <v>6.8</v>
       </c>
-      <c r="R49" s="7">
-        <v>0</v>
-      </c>
-      <c r="S49" s="7">
+      <c r="R49" s="5">
+        <v>0</v>
+      </c>
+      <c r="S49" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="5">
         <v>1.77</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="5">
         <v>42</v>
       </c>
-      <c r="W49" s="7">
+      <c r="W49" s="5">
         <v>23</v>
       </c>
-      <c r="X49" s="7">
+      <c r="X49" s="5">
         <v>6.26</v>
       </c>
-      <c r="Y49" s="7">
+      <c r="Y49" s="5">
         <v>1.35</v>
       </c>
-      <c r="Z49" s="8">
+      <c r="Z49" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5211,78 +5208,78 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="5">
+        <v>70</v>
+      </c>
+      <c r="D50" s="8">
         <v>0.35774150111329722</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="9">
         <v>15</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="5">
         <v>3.63</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="5">
         <v>0.5</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="5">
         <v>0.65</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="5">
         <v>16</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="5">
         <v>24</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="5">
         <v>0.2</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="5">
         <v>147</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="5">
         <v>2</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="5">
         <v>105</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="5">
         <v>2.8</v>
       </c>
-      <c r="R50" s="7">
-        <v>0</v>
-      </c>
-      <c r="S50" s="7">
+      <c r="R50" s="5">
+        <v>0</v>
+      </c>
+      <c r="S50" s="5">
         <v>0.03</v>
       </c>
-      <c r="T50" s="7">
+      <c r="T50" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="U50" s="7">
+      <c r="U50" s="5">
         <v>0.04</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="5">
         <v>7</v>
       </c>
-      <c r="W50" s="7">
+      <c r="W50" s="5">
         <v>6</v>
       </c>
-      <c r="X50" s="7">
+      <c r="X50" s="5">
         <v>1.67</v>
       </c>
-      <c r="Y50" s="7">
+      <c r="Y50" s="5">
         <v>0.11</v>
       </c>
-      <c r="Z50" s="8">
+      <c r="Z50" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -5291,78 +5288,78 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="5">
+        <v>70</v>
+      </c>
+      <c r="D51" s="8">
         <v>0.53280560269924271</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="9">
         <v>25</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="5">
         <v>5.88</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="5">
         <v>3</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="5">
         <v>0.98</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="5">
         <v>9</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="5">
         <v>0.23</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="5">
         <v>24</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="5">
         <v>0.16</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="5">
         <v>229</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="5">
         <v>2</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="5">
         <v>23</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R51" s="7">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7">
+      <c r="R51" s="5">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
         <v>0.3</v>
       </c>
-      <c r="T51" s="7">
+      <c r="T51" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="5">
         <v>22</v>
       </c>
-      <c r="W51" s="7">
+      <c r="W51" s="5">
         <v>6.9</v>
       </c>
-      <c r="X51" s="7">
+      <c r="X51" s="5">
         <v>3.53</v>
       </c>
-      <c r="Y51" s="7">
+      <c r="Y51" s="5">
         <v>0.18</v>
       </c>
-      <c r="Z51" s="8">
+      <c r="Z51" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5371,78 +5368,78 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="5">
+        <v>70</v>
+      </c>
+      <c r="D52" s="8">
         <v>0.94393437249042589</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="9">
         <v>149</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="5">
         <v>33.06</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="5">
         <v>2.1</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="5">
         <v>6.36</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="5">
         <v>181</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="5">
         <v>0.29899999999999999</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="5">
         <v>1.7</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="5">
         <v>153</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="5">
         <v>401</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="5">
         <v>17</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="5">
         <v>9</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="5">
         <v>31.2</v>
       </c>
-      <c r="R52" s="7">
-        <v>0</v>
-      </c>
-      <c r="S52" s="7">
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5">
         <v>0.08</v>
       </c>
-      <c r="T52" s="7">
+      <c r="T52" s="5">
         <v>0.7</v>
       </c>
-      <c r="U52" s="7">
+      <c r="U52" s="5">
         <v>1.2350000000000001</v>
       </c>
-      <c r="V52" s="7">
+      <c r="V52" s="5">
         <v>3</v>
       </c>
-      <c r="W52" s="7">
+      <c r="W52" s="5">
         <v>23.2</v>
       </c>
-      <c r="X52" s="7">
+      <c r="X52" s="5">
         <v>1</v>
       </c>
-      <c r="Y52" s="7">
+      <c r="Y52" s="5">
         <v>0.5</v>
       </c>
-      <c r="Z52" s="8">
+      <c r="Z52" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5451,78 +5448,78 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="5">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8">
         <v>0.27361313561825529</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="9">
         <v>17</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="5">
         <v>3.29</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="5">
         <v>2.1</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="5">
         <v>1.23</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="5">
         <v>33</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="5">
         <v>0.97</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="5">
         <v>30</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="5">
         <v>0.23</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="5">
         <v>247</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="5">
         <v>8</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="5">
         <v>8710</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="5">
         <v>4</v>
       </c>
-      <c r="R53" s="7">
-        <v>0</v>
-      </c>
-      <c r="S53" s="7">
+      <c r="R53" s="5">
+        <v>0</v>
+      </c>
+      <c r="S53" s="5">
         <v>0.13</v>
       </c>
-      <c r="T53" s="7">
+      <c r="T53" s="5">
         <v>0.313</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V53" s="7">
+      <c r="V53" s="5">
         <v>136</v>
       </c>
-      <c r="W53" s="7">
+      <c r="W53" s="5">
         <v>9.9</v>
       </c>
-      <c r="X53" s="7">
+      <c r="X53" s="5">
         <v>1.19</v>
       </c>
-      <c r="Y53" s="7">
+      <c r="Y53" s="5">
         <v>0.3</v>
       </c>
-      <c r="Z53" s="8">
+      <c r="Z53" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5531,78 +5528,78 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="5">
+        <v>70</v>
+      </c>
+      <c r="D54" s="8">
         <v>0.20417927355910639</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="9">
         <v>40</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="5">
         <v>9.34</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="5">
         <v>1.7</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="5">
         <v>23</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="5">
         <v>0.21</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="5">
         <v>29</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="5">
         <v>0.17</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="5">
         <v>146</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="5">
         <v>4</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="5">
         <v>2</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="5">
         <v>7.4</v>
       </c>
-      <c r="R54" s="7">
-        <v>0</v>
-      </c>
-      <c r="S54" s="7">
+      <c r="R54" s="5">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
         <v>0.02</v>
       </c>
-      <c r="T54" s="7">
+      <c r="T54" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U54" s="5">
         <v>0.12</v>
       </c>
-      <c r="V54" s="7">
+      <c r="V54" s="5">
         <v>19</v>
       </c>
-      <c r="W54" s="7">
+      <c r="W54" s="5">
         <v>6.1</v>
       </c>
-      <c r="X54" s="7">
+      <c r="X54" s="5">
         <v>4.24</v>
       </c>
-      <c r="Y54" s="7">
+      <c r="Y54" s="5">
         <v>0.1</v>
       </c>
-      <c r="Z54" s="8">
+      <c r="Z54" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5611,78 +5608,78 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="5">
+        <v>70</v>
+      </c>
+      <c r="D55" s="8">
         <v>0.11169275846429351</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="9">
         <v>77</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="5">
         <v>17.47</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="5">
         <v>2.02</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="5">
         <v>12</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="5">
         <v>0.108</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="5">
         <v>0.78</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="5">
         <v>57</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="5">
         <v>421</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="5">
         <v>6</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="5">
         <v>2</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="5">
         <v>19.7</v>
       </c>
-      <c r="R55" s="7">
-        <v>0</v>
-      </c>
-      <c r="S55" s="7">
+      <c r="R55" s="5">
+        <v>0</v>
+      </c>
+      <c r="S55" s="5">
         <v>0.01</v>
       </c>
-      <c r="T55" s="7">
+      <c r="T55" s="5">
         <v>1.054</v>
       </c>
-      <c r="U55" s="7">
+      <c r="U55" s="5">
         <v>0.29499999999999998</v>
       </c>
-      <c r="V55" s="7">
+      <c r="V55" s="5">
         <v>16</v>
       </c>
-      <c r="W55" s="7">
+      <c r="W55" s="5">
         <v>12.1</v>
       </c>
-      <c r="X55" s="7">
+      <c r="X55" s="5">
         <v>0.78</v>
       </c>
-      <c r="Y55" s="7">
+      <c r="Y55" s="5">
         <v>0.09</v>
       </c>
-      <c r="Z55" s="8">
+      <c r="Z55" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5691,78 +5688,78 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="5">
+        <v>70</v>
+      </c>
+      <c r="D56" s="8">
         <v>0.81837716970931207</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="9">
         <v>23</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="5">
         <v>3.63</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <v>2.86</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="5">
         <v>99</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>0.13</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="5">
         <v>2.71</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="5">
         <v>49</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="5">
         <v>0.53</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="5">
         <v>558</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="5">
         <v>79</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="5">
         <v>9377</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="5">
         <v>28.1</v>
       </c>
-      <c r="R56" s="7">
-        <v>0</v>
-      </c>
-      <c r="S56" s="7">
+      <c r="R56" s="5">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="T56" s="7">
+      <c r="T56" s="5">
         <v>0.72399999999999998</v>
       </c>
-      <c r="U56" s="7">
+      <c r="U56" s="5">
         <v>0.19500000000000001</v>
       </c>
-      <c r="V56" s="7">
+      <c r="V56" s="5">
         <v>194</v>
       </c>
-      <c r="W56" s="7">
+      <c r="W56" s="5">
         <v>19.3</v>
       </c>
-      <c r="X56" s="7">
+      <c r="X56" s="5">
         <v>0.42</v>
       </c>
-      <c r="Y56" s="7">
+      <c r="Y56" s="5">
         <v>0.39</v>
       </c>
-      <c r="Z56" s="8">
+      <c r="Z56" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -5771,78 +5768,78 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="5">
+        <v>44</v>
+      </c>
+      <c r="D57" s="8">
         <v>0.22251189805140845</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="9">
         <v>112</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="5">
         <v>26.23</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="5">
         <v>0.3</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="5">
         <v>1.25</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="5">
         <v>16</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="5">
         <v>0.13</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="5">
         <v>0.41</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="5">
         <v>28</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="5">
         <v>0.24</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="5">
         <v>315</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="5">
         <v>907</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="5">
         <v>513</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R57" s="7">
-        <v>0</v>
-      </c>
-      <c r="S57" s="7">
+      <c r="R57" s="5">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
         <v>1.46</v>
       </c>
-      <c r="T57" s="7">
+      <c r="T57" s="5">
         <v>1.4339999999999999</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="5">
         <v>0.158</v>
       </c>
-      <c r="V57" s="7">
+      <c r="V57" s="5">
         <v>9</v>
       </c>
-      <c r="W57" s="7">
+      <c r="W57" s="5">
         <v>12.5</v>
       </c>
-      <c r="X57" s="7">
+      <c r="X57" s="5">
         <v>21.71</v>
       </c>
-      <c r="Y57" s="7">
+      <c r="Y57" s="5">
         <v>0.18</v>
       </c>
-      <c r="Z57" s="8">
+      <c r="Z57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5851,78 +5848,78 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="5">
+        <v>85</v>
+      </c>
+      <c r="D58" s="8">
         <v>0.36052098924530795</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="9">
         <v>257</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="5">
         <v>20.079999999999998</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="5">
         <v>1.6</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="5">
         <v>11.82</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="5">
         <v>116</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="5">
         <v>2</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="5">
         <v>122</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="5">
         <v>1.91</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N58" s="5">
         <v>181</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="5">
         <v>460</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="5">
         <v>188</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="5">
         <v>0.4</v>
       </c>
-      <c r="R58" s="7">
-        <v>0</v>
-      </c>
-      <c r="S58" s="7">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7">
+      <c r="R58" s="5">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
         <v>3.3839999999999999</v>
       </c>
-      <c r="U58" s="9">
+      <c r="U58" s="7">
         <v>0.17</v>
       </c>
-      <c r="V58" s="7">
+      <c r="V58" s="5">
         <v>46</v>
       </c>
-      <c r="W58" s="7">
+      <c r="W58" s="5">
         <v>31.5</v>
       </c>
-      <c r="X58" s="7">
+      <c r="X58" s="5">
         <v>3.97</v>
       </c>
-      <c r="Y58" s="7">
+      <c r="Y58" s="5">
         <v>14.96</v>
       </c>
-      <c r="Z58" s="8">
+      <c r="Z58" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5931,78 +5928,78 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="5">
+        <v>85</v>
+      </c>
+      <c r="D59" s="8">
         <v>1.0048433629033544</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="9">
         <v>266</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <v>33.33</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="5">
         <v>11.39</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="5">
         <v>188</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>0.105</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="5">
         <v>2.48</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="5">
         <v>216</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="5">
         <v>1.34</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="5">
         <v>172</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="5">
         <v>598</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="5">
         <v>358</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="5">
         <v>1.4</v>
       </c>
-      <c r="R59" s="7">
-        <v>0</v>
-      </c>
-      <c r="S59" s="7">
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
         <v>0.83</v>
       </c>
-      <c r="T59" s="7">
+      <c r="T59" s="5">
         <v>3.8250000000000002</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="5">
         <v>0.08</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V59" s="5">
         <v>93</v>
       </c>
-      <c r="W59" s="7">
+      <c r="W59" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X59" s="5">
         <v>3.58</v>
       </c>
-      <c r="Y59" s="7">
+      <c r="Y59" s="5">
         <v>9.69</v>
       </c>
-      <c r="Z59" s="8">
+      <c r="Z59" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6011,78 +6008,78 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="5">
+        <v>85</v>
+      </c>
+      <c r="D60" s="8">
         <v>1.0048433629033544</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="9">
         <v>302</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <v>31.2</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="5">
         <v>2.5</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="5">
         <v>12.85</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="5">
         <v>288</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="5">
         <v>0.1</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="5">
         <v>1.71</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="5">
         <v>295</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="5">
         <v>1.59</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N60" s="5">
         <v>199</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="5">
         <v>742</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="5">
         <v>376</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="5">
         <v>3</v>
       </c>
-      <c r="R60" s="7">
-        <v>0</v>
-      </c>
-      <c r="S60" s="7">
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
         <v>1.29</v>
       </c>
-      <c r="T60" s="7">
+      <c r="T60" s="5">
         <v>2.5950000000000002</v>
       </c>
-      <c r="U60" s="7">
+      <c r="U60" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="V60" s="7">
+      <c r="V60" s="5">
         <v>96</v>
       </c>
-      <c r="W60" s="7">
+      <c r="W60" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="X60" s="7">
+      <c r="X60" s="5">
         <v>3.61</v>
       </c>
-      <c r="Y60" s="7">
+      <c r="Y60" s="5">
         <v>13.95</v>
       </c>
-      <c r="Z60" s="8">
+      <c r="Z60" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6091,78 +6088,78 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="5">
+        <v>89</v>
+      </c>
+      <c r="D61" s="8">
         <v>0.28359337801575202</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="9">
         <v>158</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="5">
         <v>30.86</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="5">
         <v>1.8</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="5">
         <v>5.8</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="5">
         <v>7</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="5">
         <v>0.1</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="5">
         <v>1.28</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="5">
         <v>58</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="5">
         <v>0.51</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N61" s="5">
         <v>44</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="5">
         <v>1</v>
       </c>
-      <c r="P61" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>0</v>
-      </c>
-      <c r="R61" s="7">
-        <v>0</v>
-      </c>
-      <c r="S61" s="7">
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
         <v>0.06</v>
       </c>
-      <c r="T61" s="7">
+      <c r="T61" s="5">
         <v>1.6890000000000001</v>
       </c>
-      <c r="U61" s="7">
+      <c r="U61" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="V61" s="7">
+      <c r="V61" s="5">
         <v>73</v>
       </c>
-      <c r="W61" s="7">
+      <c r="W61" s="5">
         <v>6.4</v>
       </c>
-      <c r="X61" s="7">
+      <c r="X61" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y61" s="7">
+      <c r="Y61" s="5">
         <v>0.93</v>
       </c>
-      <c r="Z61" s="8">
+      <c r="Z61" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6171,78 +6168,78 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="5">
+        <v>89</v>
+      </c>
+      <c r="D62" s="8">
         <v>0.61338375952254609</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="9">
         <v>120</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="5">
         <v>21.3</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="5">
         <v>2.8</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="5">
         <v>17</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>0.192</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="5">
         <v>1.49</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="5">
         <v>152</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N62" s="5">
         <v>172</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="5">
         <v>7</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="5">
         <v>5</v>
       </c>
-      <c r="Q62" s="7">
-        <v>0</v>
-      </c>
-      <c r="R62" s="7">
-        <v>0</v>
-      </c>
-      <c r="S62" s="7">
+      <c r="Q62" s="5">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5">
         <v>0.63</v>
       </c>
-      <c r="T62" s="7">
+      <c r="T62" s="5">
         <v>0.41199999999999998</v>
       </c>
-      <c r="U62" s="7">
+      <c r="U62" s="5">
         <v>0.123</v>
       </c>
-      <c r="V62" s="7">
+      <c r="V62" s="5">
         <v>42</v>
       </c>
-      <c r="W62" s="7">
+      <c r="W62" s="5">
         <v>23</v>
       </c>
-      <c r="X62" s="7">
+      <c r="X62" s="5">
         <v>0.87</v>
       </c>
-      <c r="Y62" s="7">
+      <c r="Y62" s="5">
         <v>1.92</v>
       </c>
-      <c r="Z62" s="8">
+      <c r="Z62" s="6">
         <v>2.5</v>
       </c>
     </row>
@@ -6251,78 +6248,78 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="5">
+        <v>89</v>
+      </c>
+      <c r="D63" s="8">
         <v>0.86352150732014032</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="9">
         <v>150</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="5">
         <v>23.96</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="5">
         <v>2</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="5">
         <v>2.34</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="5">
         <v>13</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="5">
         <v>0.62</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="5">
         <v>81</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="5">
         <v>0.34</v>
       </c>
-      <c r="N63" s="7">
+      <c r="N63" s="5">
         <v>380</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="5">
         <v>349</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="5">
         <v>4</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="5">
         <v>7.7</v>
       </c>
-      <c r="R63" s="7">
-        <v>0</v>
-      </c>
-      <c r="S63" s="7">
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
         <v>0.1</v>
       </c>
-      <c r="T63" s="7">
+      <c r="T63" s="5">
         <v>2.14</v>
       </c>
-      <c r="U63" s="7">
+      <c r="U63" s="5">
         <v>0.19600000000000001</v>
       </c>
-      <c r="V63" s="7">
+      <c r="V63" s="5">
         <v>31</v>
       </c>
-      <c r="W63" s="7">
+      <c r="W63" s="5">
         <v>19.2</v>
       </c>
-      <c r="X63" s="7">
+      <c r="X63" s="5">
         <v>0.21</v>
       </c>
-      <c r="Y63" s="7">
+      <c r="Y63" s="5">
         <v>4.99</v>
       </c>
-      <c r="Z63" s="8">
+      <c r="Z63" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6331,78 +6328,78 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="5">
+        <v>89</v>
+      </c>
+      <c r="D64" s="8">
         <v>4.8447653426706275E-2</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="9">
         <v>365</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="5">
         <v>79.95</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="5">
         <v>1.3</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="5">
         <v>7.13</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="5">
         <v>28</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>0.22</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="5">
         <v>4.3099999999999996</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="5">
         <v>115</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="5">
         <v>115</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="5">
         <v>5</v>
       </c>
-      <c r="P64" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="7">
-        <v>0</v>
-      </c>
-      <c r="R64" s="7">
-        <v>0</v>
-      </c>
-      <c r="S64" s="7">
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
         <v>0.11</v>
       </c>
-      <c r="T64" s="7">
+      <c r="T64" s="5">
         <v>4.1920000000000002</v>
       </c>
-      <c r="U64" s="7">
+      <c r="U64" s="5">
         <v>0.16400000000000001</v>
       </c>
-      <c r="V64" s="7">
+      <c r="V64" s="5">
         <v>231</v>
       </c>
-      <c r="W64" s="7">
+      <c r="W64" s="5">
         <v>5.8</v>
       </c>
-      <c r="X64" s="7">
+      <c r="X64" s="5">
         <v>0.12</v>
       </c>
-      <c r="Y64" s="7">
+      <c r="Y64" s="5">
         <v>0.66</v>
       </c>
-      <c r="Z64" s="8">
+      <c r="Z64" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6411,78 +6408,78 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="5">
+        <v>57</v>
+      </c>
+      <c r="D65" s="8">
         <v>0.84679749037611618</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="9">
         <v>378</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="5">
         <v>73.23</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="5">
         <v>9.4</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="5">
         <v>12.09</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="5">
         <v>401</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <v>0.38500000000000001</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="5">
         <v>33.17</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="5">
         <v>481</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="5">
         <v>16.73</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N65" s="5">
         <v>641</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O65" s="5">
         <v>497</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="5">
         <v>3299</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="5">
         <v>21.6</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65" s="5">
         <v>3.4</v>
       </c>
-      <c r="S65" s="7">
+      <c r="S65" s="5">
         <v>0.65</v>
       </c>
-      <c r="T65" s="7">
+      <c r="T65" s="5">
         <v>20.966999999999999</v>
       </c>
-      <c r="U65" s="7">
+      <c r="U65" s="5">
         <v>2.39</v>
       </c>
-      <c r="V65" s="7">
+      <c r="V65" s="5">
         <v>714</v>
       </c>
-      <c r="W65" s="7">
+      <c r="W65" s="5">
         <v>26.2</v>
       </c>
-      <c r="X65" s="7">
+      <c r="X65" s="5">
         <v>4.3600000000000003</v>
       </c>
-      <c r="Y65" s="7">
+      <c r="Y65" s="5">
         <v>6.73</v>
       </c>
-      <c r="Z65" s="8">
+      <c r="Z65" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6491,78 +6488,78 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="5">
+        <v>95</v>
+      </c>
+      <c r="D66" s="8">
         <v>0.28383564570997993</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="9">
         <v>265</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="5">
         <v>49.06</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="5">
         <v>2.7</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="5">
         <v>9.15</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="5">
         <v>260</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="5">
         <v>0.124</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="5">
         <v>3.59</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="5">
         <v>103</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="5">
         <v>0.84</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N66" s="5">
         <v>115</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="5">
         <v>491</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="5">
         <v>1</v>
       </c>
-      <c r="Q66" s="7">
-        <v>0</v>
-      </c>
-      <c r="R66" s="7">
-        <v>0</v>
-      </c>
-      <c r="S66" s="7">
+      <c r="Q66" s="5">
+        <v>0</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0</v>
+      </c>
+      <c r="S66" s="5">
         <v>0.22</v>
       </c>
-      <c r="T66" s="7">
+      <c r="T66" s="5">
         <v>4.78</v>
       </c>
-      <c r="U66" s="7">
+      <c r="U66" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="V66" s="7">
+      <c r="V66" s="5">
         <v>111</v>
       </c>
-      <c r="W66" s="7">
+      <c r="W66" s="5">
         <v>14.6</v>
       </c>
-      <c r="X66" s="7">
+      <c r="X66" s="5">
         <v>5.07</v>
       </c>
-      <c r="Y66" s="7">
+      <c r="Y66" s="5">
         <v>3.19</v>
       </c>
-      <c r="Z66" s="8">
+      <c r="Z66" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6571,78 +6568,78 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="5">
+        <v>95</v>
+      </c>
+      <c r="D67" s="8">
         <v>0.60464913537784071</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="9">
         <v>252</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="5">
         <v>42.71</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="5">
         <v>6</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="5">
         <v>12.45</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="5">
         <v>161</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="5">
         <v>212</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="5">
         <v>1.77</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N67" s="5">
         <v>254</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="5">
         <v>455</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="5">
         <v>3</v>
       </c>
-      <c r="Q67" s="7">
-        <v>0</v>
-      </c>
-      <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7">
+      <c r="Q67" s="5">
+        <v>0</v>
+      </c>
+      <c r="R67" s="5">
+        <v>0</v>
+      </c>
+      <c r="S67" s="5">
         <v>2.66</v>
       </c>
-      <c r="T67" s="7">
+      <c r="T67" s="5">
         <v>4.4379999999999997</v>
       </c>
-      <c r="U67" s="7">
+      <c r="U67" s="5">
         <v>0.215</v>
       </c>
-      <c r="V67" s="7">
+      <c r="V67" s="5">
         <v>42</v>
       </c>
-      <c r="W67" s="7">
+      <c r="W67" s="5">
         <v>27.2</v>
       </c>
-      <c r="X67" s="7">
+      <c r="X67" s="5">
         <v>4.34</v>
       </c>
-      <c r="Y67" s="7">
+      <c r="Y67" s="5">
         <v>3.5</v>
       </c>
-      <c r="Z67" s="8">
+      <c r="Z67" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6651,78 +6648,78 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="5">
+        <v>44</v>
+      </c>
+      <c r="D68" s="8">
         <v>0.45171633747247403</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="9">
         <v>490</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="5">
         <v>65.760000000000005</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="5">
         <v>2</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="5">
         <v>5.07</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="5">
         <v>21</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="5">
         <v>5.48</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="5">
         <v>111</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="5">
         <v>0.71</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N68" s="5">
         <v>169</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="5">
         <v>307</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="5">
         <v>1</v>
       </c>
-      <c r="Q68" s="7">
-        <v>0</v>
-      </c>
-      <c r="R68" s="7">
-        <v>0</v>
-      </c>
-      <c r="S68" s="7">
+      <c r="Q68" s="5">
+        <v>0</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0</v>
+      </c>
+      <c r="S68" s="5">
         <v>2.11</v>
       </c>
-      <c r="T68" s="7">
+      <c r="T68" s="5">
         <v>2.7080000000000002</v>
       </c>
-      <c r="U68" s="7">
+      <c r="U68" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="V68" s="7">
+      <c r="V68" s="5">
         <v>72</v>
       </c>
-      <c r="W68" s="7">
+      <c r="W68" s="5">
         <v>10.5</v>
       </c>
-      <c r="X68" s="7">
+      <c r="X68" s="5">
         <v>33.08</v>
       </c>
-      <c r="Y68" s="7">
+      <c r="Y68" s="5">
         <v>24.28</v>
       </c>
-      <c r="Z68" s="8">
+      <c r="Z68" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6731,78 +6728,78 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="5">
+        <v>44</v>
+      </c>
+      <c r="D69" s="8">
         <v>0.54059822767447252</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="9">
         <v>321</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="5">
         <v>25.5</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="5">
         <v>0.4</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="5">
         <v>5.5</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="5">
         <v>51</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>0.02</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="5">
         <v>0.63</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="5">
         <v>93</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M69" s="5">
         <v>0.51</v>
       </c>
-      <c r="N69" s="7">
+      <c r="N69" s="5">
         <v>90</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="5">
         <v>438</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="5">
         <v>547</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69" s="5">
         <v>0.4</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69" s="5">
         <v>0.5</v>
       </c>
-      <c r="S69" s="7">
+      <c r="S69" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="T69" s="7">
+      <c r="T69" s="5">
         <v>0.19500000000000001</v>
       </c>
-      <c r="U69" s="7">
+      <c r="U69" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="V69" s="7">
+      <c r="V69" s="5">
         <v>18</v>
       </c>
-      <c r="W69" s="7">
+      <c r="W69" s="5">
         <v>45.9</v>
       </c>
-      <c r="X69" s="7">
+      <c r="X69" s="5">
         <v>21.8</v>
       </c>
-      <c r="Y69" s="7">
+      <c r="Y69" s="5">
         <v>22.5</v>
       </c>
-      <c r="Z69" s="8">
+      <c r="Z69" s="6">
         <v>1.5</v>
       </c>
     </row>
@@ -6811,78 +6808,78 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="5">
+        <v>100</v>
+      </c>
+      <c r="D70" s="8">
         <v>1.3794547958103216</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="9">
         <v>131</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
         <v>20.079999999999998</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="5">
         <v>10</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="5">
         <v>170</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="5">
         <v>0.33</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N70" s="5">
         <v>302</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="5">
         <v>52</v>
       </c>
-      <c r="P70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="7">
-        <v>0</v>
-      </c>
-      <c r="R70" s="7">
+      <c r="P70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>0</v>
+      </c>
+      <c r="R70" s="5">
         <v>3.1</v>
       </c>
-      <c r="S70" s="7">
+      <c r="S70" s="5">
         <v>0.4</v>
       </c>
-      <c r="T70" s="7">
+      <c r="T70" s="5">
         <v>3.903</v>
       </c>
-      <c r="U70" s="7">
+      <c r="U70" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="V70" s="7">
+      <c r="V70" s="5">
         <v>24</v>
       </c>
-      <c r="W70" s="7">
+      <c r="W70" s="5">
         <v>42.5</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="7">
+      <c r="X70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="5">
         <v>1.7</v>
       </c>
-      <c r="Z70" s="8">
+      <c r="Z70" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6891,78 +6888,78 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="5">
+        <v>100</v>
+      </c>
+      <c r="D71" s="8">
         <v>2.696383635900848</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="9">
         <v>144</v>
       </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="7">
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
         <v>23.33</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="5">
         <v>8</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="5">
         <v>1.02</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="5">
         <v>254</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="5">
         <v>0.6</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N71" s="5">
         <v>252</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="5">
         <v>39</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="5">
         <v>2183</v>
       </c>
-      <c r="Q71" s="7">
-        <v>0</v>
-      </c>
-      <c r="R71" s="7">
+      <c r="Q71" s="5">
+        <v>0</v>
+      </c>
+      <c r="R71" s="5">
         <v>5.7</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="5">
         <v>1</v>
       </c>
-      <c r="T71" s="7">
+      <c r="T71" s="5">
         <v>8.6539999999999999</v>
       </c>
-      <c r="U71" s="7">
+      <c r="U71" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="V71" s="7">
+      <c r="V71" s="5">
         <v>2</v>
       </c>
-      <c r="W71" s="7">
+      <c r="W71" s="5">
         <v>65</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="7">
+      <c r="X71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z71" s="8">
+      <c r="Z71" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6976,56 +6973,55 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B2" s="10">
         <v>1500</v>
@@ -7064,7 +7060,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B3" s="10">
         <v>2600</v>
@@ -7103,7 +7099,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B4" s="10">
         <v>2700</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B5" s="10">
         <v>2600</v>
@@ -7181,7 +7177,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B6" s="10">
         <v>2000</v>
@@ -7220,7 +7216,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B7" s="10">
         <v>2100</v>
@@ -7259,7 +7255,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B8" s="10">
         <v>2000</v>
@@ -7298,7 +7294,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B9" s="10">
         <v>2600</v>
@@ -7359,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7369,53 +7365,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="B2" s="10">
         <v>2500</v>
@@ -7461,8 +7457,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>85</v>
+      <c r="A3" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="10">
         <v>3000</v>
@@ -7508,8 +7504,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>86</v>
+      <c r="A4" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="10">
         <v>2500</v>
@@ -7555,8 +7551,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>87</v>
+      <c r="A5" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="10">
         <v>2500</v>
@@ -7602,8 +7598,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>88</v>
+      <c r="A6" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B6" s="10">
         <v>3000</v>
@@ -7649,8 +7645,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>89</v>
+      <c r="A7" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B7" s="10">
         <v>2500</v>
@@ -7696,8 +7692,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>90</v>
+      <c r="A8" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B8" s="10">
         <v>2500</v>
@@ -7743,8 +7739,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>91</v>
+      <c r="A9" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="10">
         <v>2500</v>

--- a/Diet_Problem/Diet_Problem_Data.xlsx
+++ b/Diet_Problem/Diet_Problem_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2020\ARM_Fall_2020\Cases\Diet Problem\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9FD00-3020-455D-B1D0-A8A627CFD072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D3845-8CBC-4074-9F61-34E7F57965CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="340" windowWidth="33030" windowHeight="20650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_Data" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,21 +515,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -889,33 +878,23 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="21" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1276,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1286,5680 +1265,5680 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0.74416549963519196</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>717</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>0.06</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.85</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>24</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
         <v>0.02</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>24</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>0.09</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>24</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>643</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>2499</v>
       </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
         <v>1.5</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="3">
         <v>3</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="3">
         <v>18.8</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="3">
         <v>0.06</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="3">
         <v>81.11</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>1.8948568811266082</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>300</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.46</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>19.8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>388</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>0.33</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>347</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>2.38</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>187</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>842</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>820</v>
       </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
         <v>0.4</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>0.21</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>0.63</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="3">
         <v>62</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="3">
         <v>15.4</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="3">
         <v>0.46</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="3">
         <v>24.26</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.90115966127112623</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>403</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>1.28</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>24.9</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>721</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>0.68</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>512</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>3.11</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>98</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>621</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>1002</v>
       </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
         <v>0.6</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="3">
         <v>0.08</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="3">
         <v>18</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="3">
         <v>16.5</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="3">
         <v>0.52</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="3">
         <v>33.14</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1.0075173659183307</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>300</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>2.19</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>22.17</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>505</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>0.44</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>354</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>2.92</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>76</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>627</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>676</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <v>0.4</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>0.19</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>0.104</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="3">
         <v>7</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="3">
         <v>15.4</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="3">
         <v>1.03</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="3">
         <v>22.35</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.46676852038600525</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>174</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>3.04</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>11.26</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>207</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>0.38</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>158</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>105</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>84</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>445</v>
       </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>0.2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>0.11</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>0.104</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="3">
         <v>12</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="3">
         <v>17.5</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="3">
         <v>0.27</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="3">
         <v>12.98</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.24418509098715932</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>33</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>4.92</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>2.6</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>123</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>0.42</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>43</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>0.26</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>122</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>47</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>185</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>0.11</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="3">
         <v>0.42499999999999999</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="3">
         <v>9</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="3">
         <v>23.6</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="3">
         <v>3.65</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="3">
         <v>1.47</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>9.424783502534953E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>50</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>4.8</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>3.3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>120</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>0.02</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>92</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>0.48</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>140</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>47</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>190</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>0.2</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="3">
         <v>1.2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>0.03</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="3">
         <v>5</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="3">
         <v>1.98</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>9.6218577916378195E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>42</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>4.99</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>3.37</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>125</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>0.01</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>0.03</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>95</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>0.42</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>150</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>44</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>196</v>
       </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>1.2</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>0.01</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="3">
         <v>5</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="3">
         <v>17.7</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="3">
         <v>5.2</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="3">
         <v>0.97</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.1856593015901763</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>34</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>4.96</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>3.37</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>122</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>0.03</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>101</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>0.42</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>156</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>204</v>
       </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>1.2</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>0.01</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="3">
         <v>5</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="3">
         <v>15.6</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="3">
         <v>5.09</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="3">
         <v>0.08</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0.24724152230443927</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>119</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>21.15</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>3.05</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>132</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>0.31</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>126</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>0.48</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>224</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>111</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>67</v>
       </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>1</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>0.05</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="3">
         <v>0.124</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="3">
         <v>5</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="3">
         <v>17</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="3">
         <v>20.85</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="3">
         <v>2.7</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>0.24803306748510109</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>112</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>17.75</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>3.86</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>146</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>0.1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>115</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>0.39</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>183</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>95</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>91</v>
       </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>1.2</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>0.05</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="3">
         <v>7</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="3">
         <v>14.3</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="3">
         <v>17.75</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="3">
         <v>3.03</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>0.40427116368761368</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>99</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>18.64</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>3.98</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>138</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>0.06</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>109</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>0.67</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>177</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>53</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>40</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="3">
         <v>0.6</v>
       </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
         <v>0.02</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="3">
         <v>9</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="3">
         <v>15.2</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="3">
         <v>18.64</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>0.29735057547237648</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>52</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>0.73</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>10.9</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>7</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>0.08</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>15</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>0.03</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>163</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>166</v>
       </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
-      <c r="T14" s="5">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>0.105</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="3">
         <v>4</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="3">
         <v>0.71</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="3">
         <v>0.17</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>0.44221234002050025</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>149</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>1.61</v>
       </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>9.99</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>66</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>1.31</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>165</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>1.04</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>132</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>145</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>578</v>
       </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>1.8</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="3">
         <v>36</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="3">
         <v>221</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="3">
         <v>1.39</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="3">
         <v>10.98</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>0.51117602412141361</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>131</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>0.83</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>13.61</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>62</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>1.89</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>215</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>1.39</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>152</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>207</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>787</v>
       </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="3">
         <v>1.31</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="3">
         <v>0.184</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="3">
         <v>51</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="3">
         <v>317.10000000000002</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="3">
         <v>0.4</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="3">
         <v>14.84</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>0.7770792499099578</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>717</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>0.06</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.85</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>24</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>0.02</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>24</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <v>0.09</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>24</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>11</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="3">
         <v>2499</v>
       </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>1.5</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="3">
         <v>3</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="3">
         <v>18.8</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="3">
         <v>0.06</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="3">
         <v>81.11</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>0.25555208653870198</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>315</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>55.35</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>6.84</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>251</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>0.17</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>193</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <v>0.79</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>350</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>129</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="3">
         <v>267</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="3">
         <v>2.6</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="3">
         <v>0.2</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="3">
         <v>0.2</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="3">
         <v>0.21</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="3">
         <v>11</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="3">
         <v>89.1</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="3">
         <v>49.74</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="3">
         <v>7.35</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="4">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>1.000181170150418</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>240</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>39.6</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>1.2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>3.7</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>73</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <v>0.106</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <v>54</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="3">
         <v>0.32</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <v>68</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>162</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="3">
         <v>122</v>
       </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
         <v>0.4</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="3">
         <v>0.23699999999999999</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="3">
         <v>5</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="3">
         <v>8</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="3">
         <v>21.3</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="3">
         <v>7.4</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>0.52521776039330392</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>354</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>34.380000000000003</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>5.21</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>63</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <v>0.128</v>
       </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>108</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="3">
         <v>0.86</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>222</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>94</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="3">
         <v>104</v>
       </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>0.1</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="3">
         <v>0.18</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="3">
         <v>0.82899999999999996</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="3">
         <v>24</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="3">
         <v>23.8</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" s="3">
         <v>25</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="3">
         <v>21.88</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>0.45965354693265031</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>61</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>4.66</v>
       </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>3.47</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>121</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <v>0.05</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <v>95</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="3">
         <v>0.59</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>155</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>46</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="3">
         <v>99</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="3">
         <v>0.5</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="3">
         <v>0.1</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="3">
         <v>0.06</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="3">
         <v>7</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="3">
         <v>15.2</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="3">
         <v>4.66</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="3">
         <v>3.25</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>0.35430439075476267</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>379</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>14.64</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>0.8</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>17</v>
       </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1.18</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <v>27</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="3">
         <v>0.26</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="3">
         <v>107</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>962</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="3">
         <v>213</v>
       </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>4</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="3">
         <v>0.41799999999999998</v>
       </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="3">
         <v>15.18</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="3">
         <v>35.06</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>0.35430439075476267</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>222</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>31.22</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>1.5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>11</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <v>0.16</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <v>0.73</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="3">
         <v>16</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="3">
         <v>0.2</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="3">
         <v>107</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>838</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="3">
         <v>541</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="3">
         <v>4.8</v>
       </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="3">
         <v>0.46700000000000003</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="3">
         <v>2</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="3">
         <v>4</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="3">
         <v>16.86</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="3">
         <v>11.52</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="Z23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>3.3017421941597198</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>884</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>1</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>2</v>
       </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>14.35</v>
       </c>
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>0.3</v>
       </c>
-      <c r="X24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="Z24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>0.35225061871564883</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>884</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
         <v>41.08</v>
       </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
         <v>0.2</v>
       </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
         <v>100</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>0.2302035523424423</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>717</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>0.7</v>
       </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>0.16</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>0.06</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="3">
         <v>5</v>
       </c>
-      <c r="M26" s="5">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>18</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>751</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="3">
         <v>3571</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="3">
         <v>0.2</v>
       </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>9</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="3">
         <v>1</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="3">
         <v>12.4</v>
       </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>80.709999999999994</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>0.68390467452230164</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>143</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>21.64</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="3">
         <v>11</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="3">
         <v>0.86</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="3">
         <v>183</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="3">
         <v>1.78</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="3">
         <v>224</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>112</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="3">
         <v>56</v>
       </c>
-      <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>0.3</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="3">
         <v>0.09</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="3">
         <v>7.6310000000000002</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="3">
         <v>0.59899999999999998</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="3">
         <v>7</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27" s="3">
         <v>58</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27" s="3">
         <v>0.06</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Y27" s="3">
         <v>5.64</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="Z27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>0.40427116368760579</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>63</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>7.04</v>
       </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
         <v>5.25</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <v>183</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <v>0.08</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <v>144</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="3">
         <v>0.89</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="3">
         <v>234</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>70</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="3">
         <v>51</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="3">
         <v>0.8</v>
       </c>
-      <c r="R28" s="5">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
         <v>0.03</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="3">
         <v>0.114</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="3">
         <v>11</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" s="3">
         <v>15.2</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28" s="3">
         <v>7.04</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" s="3">
         <v>1.55</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="Z28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>1.1467767706741789</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>211</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>3.34</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>0.6</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>19.670000000000002</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="3">
         <v>28</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="3">
         <v>2.41</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <v>205</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="3">
         <v>190</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>615</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="3">
         <v>58</v>
       </c>
-      <c r="Q29" s="5">
-        <v>0</v>
-      </c>
-      <c r="R29" s="5">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>0.2</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="3">
         <v>0.36</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="3">
         <v>5.5</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="3">
         <v>0.14199999999999999</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="3">
         <v>10</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29" s="3">
         <v>89.3</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29" s="3">
         <v>2.04</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Y29" s="3">
         <v>12.67</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="Z29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>0.60298125193490948</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>223</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>3.81</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
         <v>12.23</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="3">
         <v>148</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="3">
         <v>1.47</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <v>172</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="3">
         <v>1.84</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="3">
         <v>392</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>911</v>
       </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
         <v>0.6</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="3">
         <v>0.62</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="3">
         <v>3.68</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="3">
         <v>9</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30" s="3">
         <v>48.4</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30" s="3">
         <v>1.21</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Y30" s="3">
         <v>17.29</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="Z30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>0.60298125193490948</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>305</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>1.72</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
         <v>11.53</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="3">
         <v>11</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="3">
         <v>0.08</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <v>86</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="3">
         <v>1.84</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="3">
         <v>167</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>819</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="3">
         <v>58</v>
       </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
         <v>0.9</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="3">
         <v>0.25</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="3">
         <v>2.6339999999999999</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="3">
         <v>0.13</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="3">
         <v>4</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="3">
         <v>43.2</v>
       </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="5">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
         <v>27.64</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="Z31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>1.0090896927132553</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>79</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>2.17</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>16.79</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>6</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="3">
         <v>0.32</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="3">
         <v>60</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="3">
         <v>0.3</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="3">
         <v>67</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <v>1087</v>
       </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>0.1</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="3">
         <v>0.1</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="3">
         <v>3.4279999999999999</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="3">
         <v>0.15</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="3">
         <v>1</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" s="3">
         <v>64.5</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" s="3">
         <v>0.1</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" s="3">
         <v>0.39</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="Z32" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>0.84593077713684728</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>260</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>74.239999999999995</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>29.3</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <v>13.14</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="3">
         <v>389</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="3">
         <v>1.04</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="3">
         <v>1150</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="3">
         <v>12.4</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="3">
         <v>1020</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="3">
         <v>258</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="3">
         <v>1747</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="3">
         <v>20</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="3">
         <v>4.3</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="3">
         <v>1.24</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="3">
         <v>14.8</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="3">
         <v>12</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="3">
         <v>1310</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33" s="3">
         <v>49.4</v>
       </c>
-      <c r="X33" s="5">
+      <c r="X33" s="3">
         <v>15.69</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="Y33" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="Z33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>0.70713855052510322</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>357</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>84.1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>3.3</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>7.5</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>7</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="3">
         <v>28.9</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <v>102</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="3">
         <v>1</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="3">
         <v>168</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <v>729</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="3">
         <v>1786</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="3">
         <v>21</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="3">
         <v>3.6</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="3">
         <v>0.12</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>1.79</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="3">
         <v>357</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X34" s="5">
+      <c r="X34" s="3">
         <v>9.5</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="3">
         <v>0.4</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="Z34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>0.29010325928782682</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>52</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>13.81</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>2.4</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.26</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>6</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <v>0.12</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="3">
         <v>11</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="3">
         <v>0.04</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="3">
         <v>107</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <v>1</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="3">
         <v>54</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>0.18</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35" s="3">
         <v>3</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35" s="3">
         <v>3.4</v>
       </c>
-      <c r="X35" s="5">
+      <c r="X35" s="3">
         <v>10.39</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35" s="3">
         <v>0.17</v>
       </c>
-      <c r="Z35" s="6">
+      <c r="Z35" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>0.49358587563384576</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>48</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>11.12</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>2</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>1.4</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>13</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <v>0.39</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="3">
         <v>23</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="3">
         <v>0.2</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="3">
         <v>259</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <v>1</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="3">
         <v>1926</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="3">
         <v>10</v>
       </c>
-      <c r="R36" s="5">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
         <v>0.89</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="3">
         <v>0.6</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="3">
         <v>9</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36" s="3">
         <v>2.8</v>
       </c>
-      <c r="X36" s="5">
+      <c r="X36" s="3">
         <v>9.24</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="Y36" s="3">
         <v>0.39</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="Z36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>0.210532733000376</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>89</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>22.84</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>2.6</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>5</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <v>0.26</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="3">
         <v>22</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="3">
         <v>0.15</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="3">
         <v>358</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <v>1</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="3">
         <v>64</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
         <v>0.1</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="3">
         <v>0.66500000000000004</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="3">
         <v>0.36699999999999999</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="3">
         <v>20</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W37" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X37" s="5">
+      <c r="X37" s="3">
         <v>12.23</v>
       </c>
-      <c r="Y37" s="5">
+      <c r="Y37" s="3">
         <v>0.33</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="Z37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>1.1026222068286626</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>74</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>19.18</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>2.9</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>0.75</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>35</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <v>0.37</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="3">
         <v>14</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="3">
         <v>0.15</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="3">
         <v>232</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <v>1</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="3">
         <v>142</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="3">
         <v>2</v>
       </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
         <v>0.11</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="3">
         <v>0.4</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="3">
         <v>0.113</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="3">
         <v>6</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38" s="3">
         <v>4.7</v>
       </c>
-      <c r="X38" s="5">
+      <c r="X38" s="3">
         <v>16.260000000000002</v>
       </c>
-      <c r="Y38" s="5">
+      <c r="Y38" s="3">
         <v>0.3</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="Z38" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>0.48015663658344293</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>32</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>8.51</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>0.42</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>5</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <v>0.25</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="3">
         <v>11</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="3">
         <v>0.09</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="3">
         <v>94</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <v>4</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="3">
         <v>250</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="3">
         <v>2.1</v>
       </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
         <v>0.4</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="3">
         <v>0.36299999999999999</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="3">
         <v>3</v>
       </c>
-      <c r="W39" s="5">
+      <c r="W39" s="3">
         <v>3.7</v>
       </c>
-      <c r="X39" s="5">
+      <c r="X39" s="3">
         <v>7.51</v>
       </c>
-      <c r="Y39" s="5">
+      <c r="Y39" s="3">
         <v>0.05</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="Z39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>0.30089265768883811</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>22</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>6.9</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>0.3</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <v>0.35</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <v>6</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <v>0.08</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="3">
         <v>8</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="3">
         <v>0.05</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="3">
         <v>103</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <v>1</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="3">
         <v>6</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
         <v>0.15</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="3">
         <v>20</v>
       </c>
-      <c r="W40" s="5">
+      <c r="W40" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X40" s="5">
+      <c r="X40" s="3">
         <v>2.52</v>
       </c>
-      <c r="Y40" s="5">
+      <c r="Y40" s="3">
         <v>0.24</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="Z40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <v>0.39546404957832798</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>34</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>8.16</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>0.9</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="3">
         <v>0.84</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="3">
         <v>9</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="3">
         <v>0.21</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="3">
         <v>15</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="3">
         <v>0.18</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="3">
         <v>267</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="3">
         <v>16</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="3">
         <v>3382</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>0.05</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="3">
         <v>21</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41" s="3">
         <v>7.6</v>
       </c>
-      <c r="X41" s="5">
+      <c r="X41" s="3">
         <v>7.86</v>
       </c>
-      <c r="Y41" s="5">
+      <c r="Y41" s="3">
         <v>0.19</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="Z41" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>0.14393176720906292</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>45</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>10.4</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>0.2</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="3">
         <v>0.7</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="3">
         <v>11</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="3">
         <v>0.2</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="3">
         <v>17</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="3">
         <v>0.05</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="3">
         <v>1</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="3">
         <v>50</v>
       </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>0.04</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="3">
         <v>0.4</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="3">
         <v>0.04</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="3">
         <v>30</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42" s="3">
         <v>6.2</v>
       </c>
-      <c r="X42" s="5">
+      <c r="X42" s="3">
         <v>8.4</v>
       </c>
-      <c r="Y42" s="5">
+      <c r="Y42" s="3">
         <v>0.2</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="Z42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>1.1524053171570743</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="7">
         <v>134</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>21.2</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="3">
         <v>13</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="3">
         <v>0.82</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="3">
         <v>216</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="3">
         <v>2.21</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="3">
         <v>363</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="3">
         <v>59</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="3">
         <v>2</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43" s="3">
         <v>0.2</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="3">
         <v>0.5</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="3">
         <v>0.17</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="3">
         <v>5.5730000000000004</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="3">
         <v>2</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43" s="3">
         <v>49.9</v>
       </c>
-      <c r="X43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="5">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="Z43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>1.0190681712730798</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="7">
         <v>20</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>3.88</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>2.1</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="3">
         <v>24</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="3">
         <v>0.189</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="3">
         <v>2.14</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="3">
         <v>52</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="3">
         <v>0.54</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="3">
         <v>202</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="3">
         <v>2</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="3">
         <v>756</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="3">
         <v>5.6</v>
       </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="3">
         <v>52</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44" s="3">
         <v>16</v>
       </c>
-      <c r="X44" s="5">
+      <c r="X44" s="3">
         <v>1.88</v>
       </c>
-      <c r="Y44" s="5">
+      <c r="Y44" s="3">
         <v>0.12</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="Z44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <v>0.15413646741073037</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>25</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>5.8</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>2.5</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="3">
         <v>1.28</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="3">
         <v>40</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="3">
         <v>0.47</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="3">
         <v>26</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="3">
         <v>0.18</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="3">
         <v>170</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="3">
         <v>18</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="3">
         <v>98</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="3">
         <v>36.6</v>
       </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>0.15</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="3">
         <v>0.23400000000000001</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="3">
         <v>0.124</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="3">
         <v>43</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="3">
         <v>10.7</v>
       </c>
-      <c r="X45" s="5">
+      <c r="X45" s="3">
         <v>3.2</v>
       </c>
-      <c r="Y45" s="5">
+      <c r="Y45" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="Z45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <v>0.32129699041436105</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="7">
         <v>41</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>9.58</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>2.8</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <v>0.93</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="3">
         <v>33</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <v>0.3</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="3">
         <v>35</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="3">
         <v>0.24</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="3">
         <v>320</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="3">
         <v>69</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="3">
         <v>16706</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="3">
         <v>5.9</v>
       </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>0.66</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="3">
         <v>0.98299999999999998</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="3">
         <v>19</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W46" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X46" s="5">
+      <c r="X46" s="3">
         <v>4.74</v>
       </c>
-      <c r="Y46" s="5">
+      <c r="Y46" s="3">
         <v>0.24</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="Z46" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="6">
         <v>0.9521436988113523</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="7">
         <v>25</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <v>4.97</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="3">
         <v>1.92</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="3">
         <v>22</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="3">
         <v>0.42</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="3">
         <v>44</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="3">
         <v>0.27</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="3">
         <v>299</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="3">
         <v>30</v>
       </c>
-      <c r="P47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="5">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>48.2</v>
       </c>
-      <c r="R47" s="5">
-        <v>0</v>
-      </c>
-      <c r="S47" s="5">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>0.08</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="3">
         <v>0.50700000000000001</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="3">
         <v>0.184</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="3">
         <v>57</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W47" s="3">
         <v>44.3</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X47" s="3">
         <v>1.91</v>
       </c>
-      <c r="Y47" s="5">
+      <c r="Y47" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="Z47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <v>0.32204212275803734</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>16</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <v>2.97</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>1.6</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="3">
         <v>0.69</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="3">
         <v>40</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="3">
         <v>0.2</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="3">
         <v>24</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="3">
         <v>0.13</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="3">
         <v>260</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="3">
         <v>80</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="3">
         <v>449</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48" s="3">
         <v>3.1</v>
       </c>
-      <c r="R48" s="5">
-        <v>0</v>
-      </c>
-      <c r="S48" s="5">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>0.27</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48" s="3">
         <v>0.32</v>
       </c>
-      <c r="U48" s="5">
+      <c r="U48" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V48" s="5">
+      <c r="V48" s="3">
         <v>36</v>
       </c>
-      <c r="W48" s="5">
+      <c r="W48" s="3">
         <v>6.1</v>
       </c>
-      <c r="X48" s="5">
+      <c r="X48" s="3">
         <v>1.83</v>
       </c>
-      <c r="Y48" s="5">
+      <c r="Y48" s="3">
         <v>0.17</v>
       </c>
-      <c r="Z48" s="6">
+      <c r="Z48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="6">
         <v>0.82849085888629248</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
         <v>86</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="3">
         <v>18.7</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <v>2</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="3">
         <v>3.27</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="3">
         <v>2</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="3">
         <v>0.52</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="3">
         <v>89</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="3">
         <v>0.46</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="3">
         <v>270</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="3">
         <v>15</v>
       </c>
-      <c r="P49" s="5">
+      <c r="P49" s="3">
         <v>187</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="Q49" s="3">
         <v>6.8</v>
       </c>
-      <c r="R49" s="5">
-        <v>0</v>
-      </c>
-      <c r="S49" s="5">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49" s="3">
         <v>1.77</v>
       </c>
-      <c r="U49" s="5">
+      <c r="U49" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="V49" s="5">
+      <c r="V49" s="3">
         <v>42</v>
       </c>
-      <c r="W49" s="5">
+      <c r="W49" s="3">
         <v>23</v>
       </c>
-      <c r="X49" s="5">
+      <c r="X49" s="3">
         <v>6.26</v>
       </c>
-      <c r="Y49" s="5">
+      <c r="Y49" s="3">
         <v>1.35</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="Z49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="6">
         <v>0.35774150111329722</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
         <v>15</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="3">
         <v>3.63</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>0.5</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="3">
         <v>0.65</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="3">
         <v>16</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="3">
         <v>24</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="3">
         <v>0.2</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="3">
         <v>147</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="3">
         <v>2</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="3">
         <v>105</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="Q50" s="3">
         <v>2.8</v>
       </c>
-      <c r="R50" s="5">
-        <v>0</v>
-      </c>
-      <c r="S50" s="5">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
         <v>0.03</v>
       </c>
-      <c r="T50" s="5">
+      <c r="T50" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="U50" s="5">
+      <c r="U50" s="3">
         <v>0.04</v>
       </c>
-      <c r="V50" s="5">
+      <c r="V50" s="3">
         <v>7</v>
       </c>
-      <c r="W50" s="5">
+      <c r="W50" s="3">
         <v>6</v>
       </c>
-      <c r="X50" s="5">
+      <c r="X50" s="3">
         <v>1.67</v>
       </c>
-      <c r="Y50" s="5">
+      <c r="Y50" s="3">
         <v>0.11</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="Z50" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="6">
         <v>0.53280560269924271</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
         <v>25</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="3">
         <v>5.88</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="3">
         <v>3</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="3">
         <v>0.98</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="3">
         <v>9</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="3">
         <v>0.23</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="3">
         <v>24</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="3">
         <v>0.16</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="3">
         <v>229</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="3">
         <v>2</v>
       </c>
-      <c r="P51" s="5">
+      <c r="P51" s="3">
         <v>23</v>
       </c>
-      <c r="Q51" s="5">
+      <c r="Q51" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R51" s="5">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
         <v>0.3</v>
       </c>
-      <c r="T51" s="5">
+      <c r="T51" s="3">
         <v>0.64900000000000002</v>
       </c>
-      <c r="U51" s="5">
+      <c r="U51" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="V51" s="5">
+      <c r="V51" s="3">
         <v>22</v>
       </c>
-      <c r="W51" s="5">
+      <c r="W51" s="3">
         <v>6.9</v>
       </c>
-      <c r="X51" s="5">
+      <c r="X51" s="3">
         <v>3.53</v>
       </c>
-      <c r="Y51" s="5">
+      <c r="Y51" s="3">
         <v>0.18</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="Z51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="6">
         <v>0.94393437249042589</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
         <v>149</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="3">
         <v>33.06</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="3">
         <v>2.1</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="3">
         <v>6.36</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="3">
         <v>181</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="3">
         <v>0.29899999999999999</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="3">
         <v>1.7</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="3">
         <v>153</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="3">
         <v>401</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="3">
         <v>17</v>
       </c>
-      <c r="P52" s="5">
+      <c r="P52" s="3">
         <v>9</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="Q52" s="3">
         <v>31.2</v>
       </c>
-      <c r="R52" s="5">
-        <v>0</v>
-      </c>
-      <c r="S52" s="5">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>0.08</v>
       </c>
-      <c r="T52" s="5">
+      <c r="T52" s="3">
         <v>0.7</v>
       </c>
-      <c r="U52" s="5">
+      <c r="U52" s="3">
         <v>1.2350000000000001</v>
       </c>
-      <c r="V52" s="5">
+      <c r="V52" s="3">
         <v>3</v>
       </c>
-      <c r="W52" s="5">
+      <c r="W52" s="3">
         <v>23.2</v>
       </c>
-      <c r="X52" s="5">
+      <c r="X52" s="3">
         <v>1</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Y52" s="3">
         <v>0.5</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="Z52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="6">
         <v>0.27361313561825529</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <v>17</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="3">
         <v>3.29</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="3">
         <v>2.1</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="3">
         <v>1.23</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="3">
         <v>33</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="3">
         <v>0.97</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="3">
         <v>30</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="3">
         <v>0.23</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="3">
         <v>247</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="3">
         <v>8</v>
       </c>
-      <c r="P53" s="5">
+      <c r="P53" s="3">
         <v>8710</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="Q53" s="3">
         <v>4</v>
       </c>
-      <c r="R53" s="5">
-        <v>0</v>
-      </c>
-      <c r="S53" s="5">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
         <v>0.13</v>
       </c>
-      <c r="T53" s="5">
+      <c r="T53" s="3">
         <v>0.313</v>
       </c>
-      <c r="U53" s="5">
+      <c r="U53" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="V53" s="5">
+      <c r="V53" s="3">
         <v>136</v>
       </c>
-      <c r="W53" s="5">
+      <c r="W53" s="3">
         <v>9.9</v>
       </c>
-      <c r="X53" s="5">
+      <c r="X53" s="3">
         <v>1.19</v>
       </c>
-      <c r="Y53" s="5">
+      <c r="Y53" s="3">
         <v>0.3</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="Z53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="6">
         <v>0.20417927355910639</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <v>40</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>9.34</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="3">
         <v>1.7</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="3">
         <v>23</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="3">
         <v>0.21</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="3">
         <v>29</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="3">
         <v>0.17</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="3">
         <v>146</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="3">
         <v>4</v>
       </c>
-      <c r="P54" s="5">
+      <c r="P54" s="3">
         <v>2</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="Q54" s="3">
         <v>7.4</v>
       </c>
-      <c r="R54" s="5">
-        <v>0</v>
-      </c>
-      <c r="S54" s="5">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>0.02</v>
       </c>
-      <c r="T54" s="5">
+      <c r="T54" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="U54" s="5">
+      <c r="U54" s="3">
         <v>0.12</v>
       </c>
-      <c r="V54" s="5">
+      <c r="V54" s="3">
         <v>19</v>
       </c>
-      <c r="W54" s="5">
+      <c r="W54" s="3">
         <v>6.1</v>
       </c>
-      <c r="X54" s="5">
+      <c r="X54" s="3">
         <v>4.24</v>
       </c>
-      <c r="Y54" s="5">
+      <c r="Y54" s="3">
         <v>0.1</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="Z54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="6">
         <v>0.11169275846429351</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="7">
         <v>77</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="3">
         <v>17.47</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="3">
         <v>2.02</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="3">
         <v>12</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="3">
         <v>0.108</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="3">
         <v>0.78</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="3">
         <v>57</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="3">
         <v>421</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="3">
         <v>6</v>
       </c>
-      <c r="P55" s="5">
+      <c r="P55" s="3">
         <v>2</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="Q55" s="3">
         <v>19.7</v>
       </c>
-      <c r="R55" s="5">
-        <v>0</v>
-      </c>
-      <c r="S55" s="5">
+      <c r="R55" s="3">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
         <v>0.01</v>
       </c>
-      <c r="T55" s="5">
+      <c r="T55" s="3">
         <v>1.054</v>
       </c>
-      <c r="U55" s="5">
+      <c r="U55" s="3">
         <v>0.29499999999999998</v>
       </c>
-      <c r="V55" s="5">
+      <c r="V55" s="3">
         <v>16</v>
       </c>
-      <c r="W55" s="5">
+      <c r="W55" s="3">
         <v>12.1</v>
       </c>
-      <c r="X55" s="5">
+      <c r="X55" s="3">
         <v>0.78</v>
       </c>
-      <c r="Y55" s="5">
+      <c r="Y55" s="3">
         <v>0.09</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="Z55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="6">
         <v>0.81837716970931207</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="7">
         <v>23</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="3">
         <v>3.63</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="3">
         <v>2.86</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="3">
         <v>99</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="3">
         <v>0.13</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="3">
         <v>2.71</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="3">
         <v>49</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="3">
         <v>0.53</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="3">
         <v>558</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="3">
         <v>79</v>
       </c>
-      <c r="P56" s="5">
+      <c r="P56" s="3">
         <v>9377</v>
       </c>
-      <c r="Q56" s="5">
+      <c r="Q56" s="3">
         <v>28.1</v>
       </c>
-      <c r="R56" s="5">
-        <v>0</v>
-      </c>
-      <c r="S56" s="5">
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="T56" s="5">
+      <c r="T56" s="3">
         <v>0.72399999999999998</v>
       </c>
-      <c r="U56" s="5">
+      <c r="U56" s="3">
         <v>0.19500000000000001</v>
       </c>
-      <c r="V56" s="5">
+      <c r="V56" s="3">
         <v>194</v>
       </c>
-      <c r="W56" s="5">
+      <c r="W56" s="3">
         <v>19.3</v>
       </c>
-      <c r="X56" s="5">
+      <c r="X56" s="3">
         <v>0.42</v>
       </c>
-      <c r="Y56" s="5">
+      <c r="Y56" s="3">
         <v>0.39</v>
       </c>
-      <c r="Z56" s="6">
+      <c r="Z56" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="6">
         <v>0.22251189805140845</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>112</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="3">
         <v>26.23</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="3">
         <v>0.3</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="3">
         <v>1.25</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="3">
         <v>16</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="3">
         <v>0.13</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="3">
         <v>0.41</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="3">
         <v>28</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="3">
         <v>0.24</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="3">
         <v>315</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="3">
         <v>907</v>
       </c>
-      <c r="P57" s="5">
+      <c r="P57" s="3">
         <v>513</v>
       </c>
-      <c r="Q57" s="5">
+      <c r="Q57" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R57" s="5">
-        <v>0</v>
-      </c>
-      <c r="S57" s="5">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>1.46</v>
       </c>
-      <c r="T57" s="5">
+      <c r="T57" s="3">
         <v>1.4339999999999999</v>
       </c>
-      <c r="U57" s="5">
+      <c r="U57" s="3">
         <v>0.158</v>
       </c>
-      <c r="V57" s="5">
+      <c r="V57" s="3">
         <v>9</v>
       </c>
-      <c r="W57" s="5">
+      <c r="W57" s="3">
         <v>12.5</v>
       </c>
-      <c r="X57" s="5">
+      <c r="X57" s="3">
         <v>21.71</v>
       </c>
-      <c r="Y57" s="5">
+      <c r="Y57" s="3">
         <v>0.18</v>
       </c>
-      <c r="Z57" s="6">
+      <c r="Z57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="6">
         <v>0.36052098924530795</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>257</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="3">
         <v>20.079999999999998</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="3">
         <v>1.6</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="3">
         <v>11.82</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="3">
         <v>116</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="3">
         <v>2</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="3">
         <v>122</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="3">
         <v>1.91</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="3">
         <v>181</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="3">
         <v>460</v>
       </c>
-      <c r="P58" s="5">
+      <c r="P58" s="3">
         <v>188</v>
       </c>
-      <c r="Q58" s="5">
+      <c r="Q58" s="3">
         <v>0.4</v>
       </c>
-      <c r="R58" s="5">
-        <v>0</v>
-      </c>
-      <c r="S58" s="5">
-        <v>0</v>
-      </c>
-      <c r="T58" s="5">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>3.3839999999999999</v>
       </c>
-      <c r="U58" s="7">
+      <c r="U58" s="5">
         <v>0.17</v>
       </c>
-      <c r="V58" s="5">
+      <c r="V58" s="3">
         <v>46</v>
       </c>
-      <c r="W58" s="5">
+      <c r="W58" s="3">
         <v>31.5</v>
       </c>
-      <c r="X58" s="5">
+      <c r="X58" s="3">
         <v>3.97</v>
       </c>
-      <c r="Y58" s="5">
+      <c r="Y58" s="3">
         <v>14.96</v>
       </c>
-      <c r="Z58" s="6">
+      <c r="Z58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="6">
         <v>1.0048433629033544</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
         <v>266</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="3">
         <v>33.33</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="3">
         <v>11.39</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="3">
         <v>188</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="3">
         <v>0.105</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="3">
         <v>2.48</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="3">
         <v>216</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="3">
         <v>1.34</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="3">
         <v>172</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="3">
         <v>598</v>
       </c>
-      <c r="P59" s="5">
+      <c r="P59" s="3">
         <v>358</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="Q59" s="3">
         <v>1.4</v>
       </c>
-      <c r="R59" s="5">
-        <v>0</v>
-      </c>
-      <c r="S59" s="5">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>0.83</v>
       </c>
-      <c r="T59" s="5">
+      <c r="T59" s="3">
         <v>3.8250000000000002</v>
       </c>
-      <c r="U59" s="5">
+      <c r="U59" s="3">
         <v>0.08</v>
       </c>
-      <c r="V59" s="5">
+      <c r="V59" s="3">
         <v>93</v>
       </c>
-      <c r="W59" s="5">
+      <c r="W59" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="X59" s="5">
+      <c r="X59" s="3">
         <v>3.58</v>
       </c>
-      <c r="Y59" s="5">
+      <c r="Y59" s="3">
         <v>9.69</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="Z59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="6">
         <v>1.0048433629033544</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
         <v>302</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="3">
         <v>31.2</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="3">
         <v>2.5</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="3">
         <v>12.85</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="3">
         <v>288</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="3">
         <v>0.1</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="3">
         <v>1.71</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="3">
         <v>295</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="3">
         <v>1.59</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="3">
         <v>199</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="3">
         <v>742</v>
       </c>
-      <c r="P60" s="5">
+      <c r="P60" s="3">
         <v>376</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="Q60" s="3">
         <v>3</v>
       </c>
-      <c r="R60" s="5">
-        <v>0</v>
-      </c>
-      <c r="S60" s="5">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>1.29</v>
       </c>
-      <c r="T60" s="5">
+      <c r="T60" s="3">
         <v>2.5950000000000002</v>
       </c>
-      <c r="U60" s="5">
+      <c r="U60" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="V60" s="5">
+      <c r="V60" s="3">
         <v>96</v>
       </c>
-      <c r="W60" s="5">
+      <c r="W60" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="X60" s="5">
+      <c r="X60" s="3">
         <v>3.61</v>
       </c>
-      <c r="Y60" s="5">
+      <c r="Y60" s="3">
         <v>13.95</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="Z60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="6">
         <v>0.28359337801575202</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <v>158</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="3">
         <v>30.86</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="3">
         <v>1.8</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="3">
         <v>5.8</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="3">
         <v>7</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="3">
         <v>0.1</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="3">
         <v>1.28</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="3">
         <v>58</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="3">
         <v>0.51</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="3">
         <v>44</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="3">
         <v>1</v>
       </c>
-      <c r="P61" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="5">
-        <v>0</v>
-      </c>
-      <c r="R61" s="5">
-        <v>0</v>
-      </c>
-      <c r="S61" s="5">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>0.06</v>
       </c>
-      <c r="T61" s="5">
+      <c r="T61" s="3">
         <v>1.6890000000000001</v>
       </c>
-      <c r="U61" s="5">
+      <c r="U61" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="V61" s="5">
+      <c r="V61" s="3">
         <v>73</v>
       </c>
-      <c r="W61" s="5">
+      <c r="W61" s="3">
         <v>6.4</v>
       </c>
-      <c r="X61" s="5">
+      <c r="X61" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y61" s="5">
+      <c r="Y61" s="3">
         <v>0.93</v>
       </c>
-      <c r="Z61" s="6">
+      <c r="Z61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="6">
         <v>0.61338375952254609</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="7">
         <v>120</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="3">
         <v>21.3</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="3">
         <v>2.8</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="3">
         <v>17</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="3">
         <v>0.192</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="3">
         <v>1.49</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="3">
         <v>152</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="3">
         <v>172</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="3">
         <v>7</v>
       </c>
-      <c r="P62" s="5">
+      <c r="P62" s="3">
         <v>5</v>
       </c>
-      <c r="Q62" s="5">
-        <v>0</v>
-      </c>
-      <c r="R62" s="5">
-        <v>0</v>
-      </c>
-      <c r="S62" s="5">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>0.63</v>
       </c>
-      <c r="T62" s="5">
+      <c r="T62" s="3">
         <v>0.41199999999999998</v>
       </c>
-      <c r="U62" s="5">
+      <c r="U62" s="3">
         <v>0.123</v>
       </c>
-      <c r="V62" s="5">
+      <c r="V62" s="3">
         <v>42</v>
       </c>
-      <c r="W62" s="5">
+      <c r="W62" s="3">
         <v>23</v>
       </c>
-      <c r="X62" s="5">
+      <c r="X62" s="3">
         <v>0.87</v>
       </c>
-      <c r="Y62" s="5">
+      <c r="Y62" s="3">
         <v>1.92</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="Z62" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="6">
         <v>0.86352150732014032</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="7">
         <v>150</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="3">
         <v>23.96</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="3">
         <v>2</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="3">
         <v>2.34</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="3">
         <v>13</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="3">
         <v>0.62</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="3">
         <v>81</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="3">
         <v>0.34</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="3">
         <v>380</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="3">
         <v>349</v>
       </c>
-      <c r="P63" s="5">
+      <c r="P63" s="3">
         <v>4</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="Q63" s="3">
         <v>7.7</v>
       </c>
-      <c r="R63" s="5">
-        <v>0</v>
-      </c>
-      <c r="S63" s="5">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
         <v>0.1</v>
       </c>
-      <c r="T63" s="5">
+      <c r="T63" s="3">
         <v>2.14</v>
       </c>
-      <c r="U63" s="5">
+      <c r="U63" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="V63" s="5">
+      <c r="V63" s="3">
         <v>31</v>
       </c>
-      <c r="W63" s="5">
+      <c r="W63" s="3">
         <v>19.2</v>
       </c>
-      <c r="X63" s="5">
+      <c r="X63" s="3">
         <v>0.21</v>
       </c>
-      <c r="Y63" s="5">
+      <c r="Y63" s="3">
         <v>4.99</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="Z63" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="6">
         <v>4.8447653426706275E-2</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="7">
         <v>365</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="3">
         <v>79.95</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="3">
         <v>1.3</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="3">
         <v>7.13</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="3">
         <v>28</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="3">
         <v>0.22</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="3">
         <v>115</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="3">
         <v>115</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="3">
         <v>5</v>
       </c>
-      <c r="P64" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>0</v>
-      </c>
-      <c r="R64" s="5">
-        <v>0</v>
-      </c>
-      <c r="S64" s="5">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
         <v>0.11</v>
       </c>
-      <c r="T64" s="5">
+      <c r="T64" s="3">
         <v>4.1920000000000002</v>
       </c>
-      <c r="U64" s="5">
+      <c r="U64" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="V64" s="5">
+      <c r="V64" s="3">
         <v>231</v>
       </c>
-      <c r="W64" s="5">
+      <c r="W64" s="3">
         <v>5.8</v>
       </c>
-      <c r="X64" s="5">
+      <c r="X64" s="3">
         <v>0.12</v>
       </c>
-      <c r="Y64" s="5">
+      <c r="Y64" s="3">
         <v>0.66</v>
       </c>
-      <c r="Z64" s="6">
+      <c r="Z64" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="6">
         <v>0.84679749037611618</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="7">
         <v>378</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="3">
         <v>73.23</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="3">
         <v>9.4</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="3">
         <v>12.09</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="3">
         <v>401</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="3">
         <v>33.17</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="3">
         <v>481</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="3">
         <v>16.73</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="3">
         <v>641</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="3">
         <v>497</v>
       </c>
-      <c r="P65" s="5">
+      <c r="P65" s="3">
         <v>3299</v>
       </c>
-      <c r="Q65" s="5">
+      <c r="Q65" s="3">
         <v>21.6</v>
       </c>
-      <c r="R65" s="5">
+      <c r="R65" s="3">
         <v>3.4</v>
       </c>
-      <c r="S65" s="5">
+      <c r="S65" s="3">
         <v>0.65</v>
       </c>
-      <c r="T65" s="5">
+      <c r="T65" s="3">
         <v>20.966999999999999</v>
       </c>
-      <c r="U65" s="5">
+      <c r="U65" s="3">
         <v>2.39</v>
       </c>
-      <c r="V65" s="5">
+      <c r="V65" s="3">
         <v>714</v>
       </c>
-      <c r="W65" s="5">
+      <c r="W65" s="3">
         <v>26.2</v>
       </c>
-      <c r="X65" s="5">
+      <c r="X65" s="3">
         <v>4.3600000000000003</v>
       </c>
-      <c r="Y65" s="5">
+      <c r="Y65" s="3">
         <v>6.73</v>
       </c>
-      <c r="Z65" s="6">
+      <c r="Z65" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="6">
         <v>0.28383564570997993</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="7">
         <v>265</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="3">
         <v>49.06</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="3">
         <v>2.7</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="3">
         <v>9.15</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="3">
         <v>260</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="3">
         <v>0.124</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="3">
         <v>3.59</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="3">
         <v>103</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="3">
         <v>0.84</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="3">
         <v>115</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="3">
         <v>491</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P66" s="3">
         <v>1</v>
       </c>
-      <c r="Q66" s="5">
-        <v>0</v>
-      </c>
-      <c r="R66" s="5">
-        <v>0</v>
-      </c>
-      <c r="S66" s="5">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>0.22</v>
       </c>
-      <c r="T66" s="5">
+      <c r="T66" s="3">
         <v>4.78</v>
       </c>
-      <c r="U66" s="5">
+      <c r="U66" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="V66" s="5">
+      <c r="V66" s="3">
         <v>111</v>
       </c>
-      <c r="W66" s="5">
+      <c r="W66" s="3">
         <v>14.6</v>
       </c>
-      <c r="X66" s="5">
+      <c r="X66" s="3">
         <v>5.07</v>
       </c>
-      <c r="Y66" s="5">
+      <c r="Y66" s="3">
         <v>3.19</v>
       </c>
-      <c r="Z66" s="6">
+      <c r="Z66" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="6">
         <v>0.60464913537784071</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="7">
         <v>252</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="3">
         <v>42.71</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="3">
         <v>6</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="3">
         <v>12.45</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="3">
         <v>161</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="3">
         <v>212</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="3">
         <v>1.77</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="3">
         <v>254</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="3">
         <v>455</v>
       </c>
-      <c r="P67" s="5">
+      <c r="P67" s="3">
         <v>3</v>
       </c>
-      <c r="Q67" s="5">
-        <v>0</v>
-      </c>
-      <c r="R67" s="5">
-        <v>0</v>
-      </c>
-      <c r="S67" s="5">
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
         <v>2.66</v>
       </c>
-      <c r="T67" s="5">
+      <c r="T67" s="3">
         <v>4.4379999999999997</v>
       </c>
-      <c r="U67" s="5">
+      <c r="U67" s="3">
         <v>0.215</v>
       </c>
-      <c r="V67" s="5">
+      <c r="V67" s="3">
         <v>42</v>
       </c>
-      <c r="W67" s="5">
+      <c r="W67" s="3">
         <v>27.2</v>
       </c>
-      <c r="X67" s="5">
+      <c r="X67" s="3">
         <v>4.34</v>
       </c>
-      <c r="Y67" s="5">
+      <c r="Y67" s="3">
         <v>3.5</v>
       </c>
-      <c r="Z67" s="6">
+      <c r="Z67" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="6">
         <v>0.45171633747247403</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="7">
         <v>490</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="3">
         <v>65.760000000000005</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="3">
         <v>2</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="3">
         <v>5.07</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="3">
         <v>21</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="3">
         <v>0.32100000000000001</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="3">
         <v>5.48</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="3">
         <v>111</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="3">
         <v>0.71</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="3">
         <v>169</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="3">
         <v>307</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P68" s="3">
         <v>1</v>
       </c>
-      <c r="Q68" s="5">
-        <v>0</v>
-      </c>
-      <c r="R68" s="5">
-        <v>0</v>
-      </c>
-      <c r="S68" s="5">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
         <v>2.11</v>
       </c>
-      <c r="T68" s="5">
+      <c r="T68" s="3">
         <v>2.7080000000000002</v>
       </c>
-      <c r="U68" s="5">
+      <c r="U68" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="V68" s="5">
+      <c r="V68" s="3">
         <v>72</v>
       </c>
-      <c r="W68" s="5">
+      <c r="W68" s="3">
         <v>10.5</v>
       </c>
-      <c r="X68" s="5">
+      <c r="X68" s="3">
         <v>33.08</v>
       </c>
-      <c r="Y68" s="5">
+      <c r="Y68" s="3">
         <v>24.28</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="Z68" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="6">
         <v>0.54059822767447252</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="7">
         <v>321</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="3">
         <v>25.5</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="3">
         <v>0.4</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="3">
         <v>5.5</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="3">
         <v>51</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="3">
         <v>0.02</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="3">
         <v>0.63</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="3">
         <v>93</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="3">
         <v>0.51</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="3">
         <v>90</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="3">
         <v>438</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P69" s="3">
         <v>547</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="Q69" s="3">
         <v>0.4</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R69" s="3">
         <v>0.5</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S69" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="T69" s="5">
+      <c r="T69" s="3">
         <v>0.19500000000000001</v>
       </c>
-      <c r="U69" s="5">
+      <c r="U69" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V69" s="3">
         <v>18</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W69" s="3">
         <v>45.9</v>
       </c>
-      <c r="X69" s="5">
+      <c r="X69" s="3">
         <v>21.8</v>
       </c>
-      <c r="Y69" s="5">
+      <c r="Y69" s="3">
         <v>22.5</v>
       </c>
-      <c r="Z69" s="6">
+      <c r="Z69" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="6">
         <v>1.3794547958103216</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="7">
         <v>131</v>
       </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>20.079999999999998</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="3">
         <v>10</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="3">
         <v>170</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="3">
         <v>0.33</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="3">
         <v>302</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="3">
         <v>52</v>
       </c>
-      <c r="P70" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="5">
-        <v>0</v>
-      </c>
-      <c r="R70" s="5">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>3.1</v>
       </c>
-      <c r="S70" s="5">
+      <c r="S70" s="3">
         <v>0.4</v>
       </c>
-      <c r="T70" s="5">
+      <c r="T70" s="3">
         <v>3.903</v>
       </c>
-      <c r="U70" s="5">
+      <c r="U70" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="V70" s="5">
+      <c r="V70" s="3">
         <v>24</v>
       </c>
-      <c r="W70" s="5">
+      <c r="W70" s="3">
         <v>42.5</v>
       </c>
-      <c r="X70" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>1.7</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="Z70" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="6">
         <v>2.696383635900848</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="7">
         <v>144</v>
       </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
         <v>23.33</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="3">
         <v>8</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="3">
         <v>1.02</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="3">
         <v>254</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="3">
         <v>0.6</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71" s="3">
         <v>252</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="3">
         <v>39</v>
       </c>
-      <c r="P71" s="5">
+      <c r="P71" s="3">
         <v>2183</v>
       </c>
-      <c r="Q71" s="5">
-        <v>0</v>
-      </c>
-      <c r="R71" s="5">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
         <v>5.7</v>
       </c>
-      <c r="S71" s="5">
+      <c r="S71" s="3">
         <v>1</v>
       </c>
-      <c r="T71" s="5">
+      <c r="T71" s="3">
         <v>8.6539999999999999</v>
       </c>
-      <c r="U71" s="5">
+      <c r="U71" s="3">
         <v>0.45500000000000002</v>
       </c>
-      <c r="V71" s="5">
+      <c r="V71" s="3">
         <v>2</v>
       </c>
-      <c r="W71" s="5">
+      <c r="W71" s="3">
         <v>65</v>
       </c>
-      <c r="X71" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="Z71" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6970,10 +6949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6982,356 +6961,347 @@
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <v>1500</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>130</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1">
         <v>19</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="1">
         <v>1000</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="1">
         <v>0.44</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="1">
         <v>500</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="1">
         <v>3800</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="1">
         <v>1200</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <v>2600</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>130</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <v>38</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <v>52</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="1">
         <v>1300</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="1">
         <v>0.89</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="1">
         <v>11</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="1">
         <v>1250</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="1">
         <v>11</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="1">
         <v>4700</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="1">
         <v>1500</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <v>2700</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>130</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <v>38</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <v>56</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <v>1000</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>0.9</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="1">
         <v>700</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="1">
         <v>11</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="1">
         <v>4700</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="1">
         <v>1500</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <v>2600</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <v>130</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <v>38</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <v>56</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <v>1000</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="1">
         <v>0.9</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="1">
         <v>700</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="1">
         <v>11</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="1">
         <v>4700</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="1">
         <v>1500</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <v>2000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <v>130</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="1">
         <v>26</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="1">
         <v>46</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="1">
         <v>1300</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="1">
         <v>0.89</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="1">
         <v>15</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="1">
         <v>1250</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="1">
         <v>9</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="1">
         <v>4700</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="1">
         <v>1500</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>130</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="1">
         <v>46</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="1">
         <v>1000</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="1">
         <v>0.9</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="1">
         <v>700</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="1">
         <v>8</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="1">
         <v>4700</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="1">
         <v>1500</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <v>2000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="1">
         <v>130</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="1">
         <v>46</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="1">
         <v>1000</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="1">
         <v>0.9</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="1">
         <v>18</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="1">
         <v>700</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="1">
         <v>8</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="1">
         <v>4700</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="1">
         <v>1500</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="1">
         <v>2600</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="1">
         <v>175</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="1">
         <v>28</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="1">
         <v>71</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="1">
         <v>1000</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="1">
         <v>27</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="1">
         <v>700</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="1">
         <v>11</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="1">
         <v>4700</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="1">
         <v>1500</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7344,7 +7314,6 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7355,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7413,46 +7382,46 @@
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>2500</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2">
         <v>3000</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2">
         <v>1900</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2">
         <v>0.9</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2">
         <v>650</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2">
         <v>75</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2">
         <v>300</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2">
         <v>15</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2">
         <v>40</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2">
         <v>400</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2">
         <v>1000</v>
       </c>
     </row>
@@ -7460,46 +7429,46 @@
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>3000</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>45</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>4000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <v>2300</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>2.8</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3">
         <v>1800</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3">
         <v>800</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3">
         <v>80</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3">
         <v>800</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3">
         <v>3000</v>
       </c>
     </row>
@@ -7507,46 +7476,46 @@
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>2500</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>45</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>4000</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>2300</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4">
         <v>2000</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4">
         <v>1000</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4">
         <v>35</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4">
         <v>1000</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4">
         <v>3500</v>
       </c>
     </row>
@@ -7554,46 +7523,46 @@
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>2500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5">
         <v>45</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>4000</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5">
         <v>2300</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5">
         <v>2000</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5">
         <v>1000</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5">
         <v>35</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5">
         <v>1000</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5">
         <v>3500</v>
       </c>
     </row>
@@ -7601,46 +7570,46 @@
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>3000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>45</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>4000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6">
         <v>34</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6">
         <v>2300</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <v>2.8</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6">
         <v>1800</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6">
         <v>800</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6">
         <v>30</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6">
         <v>80</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6">
         <v>800</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6">
         <v>3000</v>
       </c>
     </row>
@@ -7648,46 +7617,46 @@
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>2500</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7">
         <v>4000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <v>40</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7">
         <v>2300</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7">
         <v>2000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7">
         <v>35</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7">
         <v>100</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7">
         <v>1000</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7">
         <v>3500</v>
       </c>
     </row>
@@ -7695,46 +7664,46 @@
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>2500</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>45</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8">
         <v>4000</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>2300</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8">
         <v>2000</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8">
         <v>1000</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8">
         <v>35</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8">
         <v>1000</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8">
         <v>3500</v>
       </c>
     </row>
@@ -7742,46 +7711,46 @@
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>2500</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>45</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9">
         <v>3500</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9">
         <v>2300</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9">
         <v>2000</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9">
         <v>1000</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9">
         <v>35</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9">
         <v>100</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9">
         <v>1000</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9">
         <v>3500</v>
       </c>
     </row>
